--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D6548-2833-4DD9-A05C-11ACCEE89937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED33EC-55C0-4F8A-A63E-2B5A83FE0CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetSector" sheetId="1" r:id="rId1"/>
     <sheet name="AssetCountry" sheetId="2" r:id="rId2"/>
     <sheet name="FundTransferHistory" sheetId="3" r:id="rId3"/>
+    <sheet name="STWatchlist" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AssetCountry!$1:$124</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="123">
   <si>
     <t>Datadate</t>
   </si>
@@ -335,6 +336,78 @@
   </si>
   <si>
     <t>EntryDatetime</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Entry Datetime</t>
+  </si>
+  <si>
+    <t>VCLT</t>
+  </si>
+  <si>
+    <t>Rising interest rate generally enhance bond performance</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>US long-term corp bond</t>
+  </si>
+  <si>
+    <t>US long-term gov bond</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Short-term</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>Financial sector tend to perform better in rising interest rate environment</t>
+  </si>
+  <si>
+    <t>US financial sector index</t>
+  </si>
+  <si>
+    <t>Look Up Symbol</t>
+  </si>
+  <si>
+    <t>Medium-term</t>
+  </si>
+  <si>
+    <t>Private equity</t>
+  </si>
+  <si>
+    <t>Pension fund increase exposure to PE</t>
+  </si>
+  <si>
+    <t>Pension fund increase exposure to ESG</t>
+  </si>
+  <si>
+    <t>ESG</t>
   </si>
 </sst>
 </file>
@@ -6241,8 +6314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24FBA74-073E-46F2-A677-303D1306A835}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="H20:I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6325,4 +6398,230 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940DB676-0691-4D6D-967D-ED592843676B}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;"-"&amp;B2</f>
+        <v>VCLT-USD</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <v>44628.725694444445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">A3&amp;"-"&amp;B3</f>
+        <v>TLT-USD</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <v>44628.725694444445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>XLF-USD</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>44628.725694444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>44628.725694444445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>44628.725694444445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED33EC-55C0-4F8A-A63E-2B5A83FE0CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ED5061-A083-4916-87F3-C60EE8E418C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="122">
   <si>
     <t>Datadate</t>
   </si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>US financial sector index</t>
-  </si>
-  <si>
-    <t>Look Up Symbol</t>
   </si>
   <si>
     <t>Medium-term</t>
@@ -6405,7 +6402,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6426,7 +6423,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>108</v>
@@ -6567,16 +6564,16 @@
         <v>-</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
         <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -6597,16 +6594,16 @@
         <v>-</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6">
         <v>1</v>

--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ED5061-A083-4916-87F3-C60EE8E418C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834B617-4DC8-44AC-ADB3-07EAF78DAD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="134">
   <si>
     <t>Datadate</t>
   </si>
@@ -398,13 +398,49 @@
     <t>Private equity</t>
   </si>
   <si>
-    <t>Pension fund increase exposure to PE</t>
-  </si>
-  <si>
-    <t>Pension fund increase exposure to ESG</t>
-  </si>
-  <si>
     <t>ESG</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>Guemsey</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>1.45%</t>
+  </si>
+  <si>
+    <t>0.24%</t>
+  </si>
+  <si>
+    <t>0.15%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>Government Bond</t>
+  </si>
+  <si>
+    <t>Corporate Bond</t>
+  </si>
+  <si>
+    <t>Pension fund increase exposure to PE, heavy on Financials</t>
+  </si>
+  <si>
+    <t>Pension fund increase exposure to ESG, heavy on Technology</t>
+  </si>
+  <si>
+    <t>ESGV</t>
+  </si>
+  <si>
+    <t>0.09%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +940,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -936,6 +972,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1291,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="F111" sqref="F101:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3378,6 +3416,490 @@
         <v>1</v>
       </c>
     </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="8">
+        <f>69.56+8.58</f>
+        <v>78.14</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="8">
+        <v>9.69</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="8">
+        <v>8.14</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="8">
+        <v>3.63</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" s="8">
+        <v>100</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="8">
+        <v>100</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="8">
+        <v>100</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>3.2</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102">
+        <v>16.5</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104">
+        <v>0.2</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B106" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>13.4</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B108" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110">
+        <v>3.9</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B111" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>1.2</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G90" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:G90">
@@ -3390,10 +3912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6293,6 +6815,351 @@
         <v>100</v>
       </c>
       <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B125" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F125" s="8">
+        <v>44.99</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B126" t="s">
+        <v>120</v>
+      </c>
+      <c r="C126" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F126" s="8">
+        <v>14.76</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B127" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F127" s="8">
+        <v>6.07</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B128" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128" s="8">
+        <v>5.19</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B129" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F129" s="8">
+        <v>5.17</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F130" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B131" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B132" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" t="s">
+        <v>50</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F132" s="8">
+        <v>4</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F133" s="8">
+        <v>3.23</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F134" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B135" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" s="8">
+        <v>6</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B136" t="s">
+        <v>105</v>
+      </c>
+      <c r="C136" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="8">
+        <v>100</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B137" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" t="s">
+        <v>50</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F137" s="8">
+        <v>100</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B138" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138" s="8">
+        <v>100</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B139" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F139" s="8">
+        <v>100</v>
+      </c>
+      <c r="G139">
         <v>1</v>
       </c>
     </row>
@@ -6399,23 +7266,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940DB676-0691-4D6D-967D-ED592843676B}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -6426,31 +7294,34 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -6461,32 +7332,35 @@
         <f>A2&amp;"-"&amp;B2</f>
         <v>VCLT-USD</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>112</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>113</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>106</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="14">
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -6497,32 +7371,35 @@
         <f t="shared" ref="C3:C6" si="0">A3&amp;"-"&amp;B3</f>
         <v>TLT-USD</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>112</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>113</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>106</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14">
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -6533,88 +7410,109 @@
         <f t="shared" si="0"/>
         <v>XLF-USD</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
         <v>116</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>113</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>115</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="14">
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D5" t="s">
+        <v>PSP-USD</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
         <v>118</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>112</v>
       </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
       <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
+        <v>ESGV-USD</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
         <v>112</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>117</v>
       </c>
-      <c r="G6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="H6" t="s">
+        <v>131</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="14">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14">
         <v>44628.725694444445</v>
       </c>
     </row>

--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834B617-4DC8-44AC-ADB3-07EAF78DAD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011551E0-75DA-4B7D-867C-069AD5668933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-18195" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetSector" sheetId="1" r:id="rId1"/>
     <sheet name="AssetCountry" sheetId="2" r:id="rId2"/>
     <sheet name="FundTransferHistory" sheetId="3" r:id="rId3"/>
     <sheet name="STWatchlist" sheetId="4" r:id="rId4"/>
+    <sheet name="AssetChar" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AssetCountry!$1:$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AssetChar!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AssetCountry!$A$1:$G$139</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AssetSector!$A$1:$G$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="155">
   <si>
     <t>Datadate</t>
   </si>
@@ -146,9 +147,6 @@
     <t>EQD U</t>
   </si>
   <si>
-    <t>GBMTU</t>
-  </si>
-  <si>
     <t>ICLN</t>
   </si>
   <si>
@@ -441,6 +439,72 @@
   </si>
   <si>
     <t>0.09%</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>AssetCategory</t>
+  </si>
+  <si>
+    <t>AssetClass</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>SPAC</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Fixed Income</t>
+  </si>
+  <si>
+    <t>Canadian Equity</t>
+  </si>
+  <si>
+    <t>US Equity</t>
+  </si>
+  <si>
+    <t>Global Equity</t>
+  </si>
+  <si>
+    <t>Emerging Market Equity</t>
+  </si>
+  <si>
+    <t>Materials ex Gold</t>
+  </si>
+  <si>
+    <t>Hedge</t>
+  </si>
+  <si>
+    <t>EV Research</t>
+  </si>
+  <si>
+    <t>Private Equity</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Arbitrage</t>
+  </si>
+  <si>
+    <t>To Liquidate</t>
+  </si>
+  <si>
+    <t>LT Hold</t>
+  </si>
+  <si>
+    <t>GMBTU</t>
   </si>
 </sst>
 </file>
@@ -1331,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F111" sqref="F101:F111"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,7 +1406,7 @@
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1354,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1377,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1400,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1423,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1446,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1469,7 +1533,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1492,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1515,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1538,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1561,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1584,7 +1648,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1607,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1630,7 +1694,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1653,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1676,7 +1740,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1699,7 +1763,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1722,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1745,7 +1809,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1768,7 +1832,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1791,7 +1855,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1814,7 +1878,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1837,7 +1901,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1860,7 +1924,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1883,7 +1947,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1906,7 +1970,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1929,7 +1993,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1952,7 +2016,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1975,7 +2039,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1998,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -2021,7 +2085,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -2044,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -2067,7 +2131,7 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -2090,7 +2154,7 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -2113,7 +2177,7 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -2136,7 +2200,7 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -2159,7 +2223,7 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -2182,7 +2246,7 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -2205,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -2228,7 +2292,7 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -2251,7 +2315,7 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -2274,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -2297,7 +2361,7 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -2320,7 +2384,7 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -2343,7 +2407,7 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -2366,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -2389,7 +2453,7 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -2412,7 +2476,7 @@
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -2435,7 +2499,7 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -2458,7 +2522,7 @@
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -2481,7 +2545,7 @@
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -2504,7 +2568,7 @@
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -2527,7 +2591,7 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -2550,7 +2614,7 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -2570,10 +2634,10 @@
         <v>44627</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -2596,7 +2660,7 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -2616,10 +2680,10 @@
         <v>44627</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -2639,10 +2703,10 @@
         <v>44627</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -2662,10 +2726,10 @@
         <v>44627</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2685,10 +2749,10 @@
         <v>44627</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2708,10 +2772,10 @@
         <v>44627</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2731,10 +2795,10 @@
         <v>44627</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -2754,10 +2818,10 @@
         <v>44627</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -2777,10 +2841,10 @@
         <v>44627</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -2800,10 +2864,10 @@
         <v>44627</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -2823,10 +2887,10 @@
         <v>44627</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2849,7 +2913,7 @@
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -2869,10 +2933,10 @@
         <v>44627</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -2892,10 +2956,10 @@
         <v>44627</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -2915,10 +2979,10 @@
         <v>44627</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -2938,10 +3002,10 @@
         <v>44627</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -2961,10 +3025,10 @@
         <v>44627</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -2984,10 +3048,10 @@
         <v>44627</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -3007,10 +3071,10 @@
         <v>44627</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -3030,10 +3094,10 @@
         <v>44627</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -3053,10 +3117,10 @@
         <v>44627</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -3076,10 +3140,10 @@
         <v>44627</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -3099,10 +3163,10 @@
         <v>44627</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -3122,10 +3186,10 @@
         <v>44627</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -3145,10 +3209,10 @@
         <v>44627</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -3171,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -3194,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -3217,7 +3281,7 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -3240,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -3263,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -3286,7 +3350,7 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -3309,7 +3373,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -3332,7 +3396,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -3355,7 +3419,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -3378,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -3401,7 +3465,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -3421,10 +3485,10 @@
         <v>44628</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -3445,10 +3509,10 @@
         <v>44628</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -3468,10 +3532,10 @@
         <v>44628</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -3491,10 +3555,10 @@
         <v>44628</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -3514,10 +3578,10 @@
         <v>44628</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -3537,10 +3601,10 @@
         <v>44628</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -3560,16 +3624,16 @@
         <v>44628</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F97" s="8">
         <v>0.32</v>
@@ -3583,16 +3647,16 @@
         <v>44628</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F98" s="8">
         <v>100</v>
@@ -3606,16 +3670,16 @@
         <v>44628</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F99" s="8">
         <v>100</v>
@@ -3629,10 +3693,10 @@
         <v>44628</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -3652,10 +3716,10 @@
         <v>44628</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -3675,10 +3739,10 @@
         <v>44628</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -3698,10 +3762,10 @@
         <v>44628</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -3721,10 +3785,10 @@
         <v>44628</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -3744,10 +3808,10 @@
         <v>44628</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -3767,10 +3831,10 @@
         <v>44628</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -3790,10 +3854,10 @@
         <v>44628</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -3813,10 +3877,10 @@
         <v>44628</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -3836,10 +3900,10 @@
         <v>44628</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -3859,10 +3923,10 @@
         <v>44628</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -3882,10 +3946,10 @@
         <v>44628</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -3914,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3925,7 +3989,7 @@
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3937,13 +4001,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3967,7 +4031,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="8">
         <v>5.2</v>
@@ -3991,7 +4055,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8">
         <v>1.5</v>
@@ -4015,7 +4079,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="8">
         <v>2</v>
@@ -4039,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="8">
         <v>41.5</v>
@@ -4087,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8">
         <v>13.3</v>
@@ -4111,7 +4175,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="8">
         <v>36.4</v>
@@ -4135,7 +4199,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="8">
         <v>100</v>
@@ -4159,7 +4223,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8">
         <v>4.5</v>
@@ -4183,7 +4247,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8">
         <v>41.44</v>
@@ -4207,7 +4271,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="8">
         <v>8.15</v>
@@ -4231,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="8">
         <v>1.22</v>
@@ -4255,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="8">
         <v>1.7</v>
@@ -4279,7 +4343,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="8">
         <v>1.61</v>
@@ -4327,7 +4391,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
@@ -4351,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="8">
         <v>2.75</v>
@@ -4375,7 +4439,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="8">
         <v>3.51</v>
@@ -4399,7 +4463,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8">
         <v>11.97</v>
@@ -4423,7 +4487,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="8">
         <v>12.64</v>
@@ -4447,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="8">
         <v>1.74</v>
@@ -4471,7 +4535,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="8">
         <v>9</v>
@@ -4495,7 +4559,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="8">
         <v>8.6999999999999993</v>
@@ -4519,7 +4583,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="8">
         <v>2.7</v>
@@ -4543,7 +4607,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="8">
         <v>2</v>
@@ -4567,7 +4631,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="8">
         <v>0.9</v>
@@ -4591,7 +4655,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="8">
         <v>4</v>
@@ -4615,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="8">
         <v>0.6</v>
@@ -4639,7 +4703,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="8">
         <v>5.9</v>
@@ -4663,7 +4727,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="8">
         <v>4.7</v>
@@ -4687,7 +4751,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="8">
         <v>4.5</v>
@@ -4711,7 +4775,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="8">
         <v>57.1</v>
@@ -4759,7 +4823,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="8">
         <v>100</v>
@@ -4783,7 +4847,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="8">
         <v>100</v>
@@ -4807,7 +4871,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="8">
         <v>100</v>
@@ -4831,7 +4895,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="8">
         <v>100</v>
@@ -4848,13 +4912,13 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="8">
         <v>100</v>
@@ -4871,13 +4935,13 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="8">
         <v>100</v>
@@ -4894,13 +4958,13 @@
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="8">
         <v>100</v>
@@ -4917,13 +4981,13 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="8">
         <v>100</v>
@@ -4940,13 +5004,13 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="8">
         <v>100</v>
@@ -4960,16 +5024,16 @@
         <v>44627</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="8">
         <v>100</v>
@@ -4986,7 +5050,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -5006,16 +5070,16 @@
         <v>44627</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F46" s="10">
         <v>1.85</v>
@@ -5029,16 +5093,16 @@
         <v>44627</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="10">
         <v>2.1</v>
@@ -5052,16 +5116,16 @@
         <v>44627</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F48" s="10">
         <v>7.67</v>
@@ -5075,16 +5139,16 @@
         <v>44627</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="10">
         <v>6.84</v>
@@ -5098,16 +5162,16 @@
         <v>44627</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" s="10">
         <v>14.38</v>
@@ -5121,16 +5185,16 @@
         <v>44627</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51" s="10">
         <v>3.58</v>
@@ -5144,16 +5208,16 @@
         <v>44627</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F52" s="10">
         <v>2.06</v>
@@ -5167,16 +5231,16 @@
         <v>44627</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" s="11">
         <v>1.65</v>
@@ -5190,10 +5254,10 @@
         <v>44627</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -5213,16 +5277,16 @@
         <v>44627</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="10">
         <v>5.62</v>
@@ -5236,16 +5300,16 @@
         <v>44627</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="10">
         <v>5.55</v>
@@ -5259,16 +5323,16 @@
         <v>44627</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F57" s="13">
         <v>3.9</v>
@@ -5282,16 +5346,16 @@
         <v>44627</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58" s="10">
         <v>38.46</v>
@@ -5305,16 +5369,16 @@
         <v>44627</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F59" s="8">
         <v>100</v>
@@ -5328,16 +5392,16 @@
         <v>44627</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="8">
         <v>100</v>
@@ -5351,16 +5415,16 @@
         <v>44627</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F61" s="9">
         <v>2.17</v>
@@ -5374,16 +5438,16 @@
         <v>44627</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F62" s="8">
         <v>5.24</v>
@@ -5397,16 +5461,16 @@
         <v>44627</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F63" s="8">
         <v>2.11</v>
@@ -5420,16 +5484,16 @@
         <v>44627</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F64" s="8">
         <v>1.6</v>
@@ -5443,16 +5507,16 @@
         <v>44627</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F65" s="8">
         <v>1.38</v>
@@ -5466,16 +5530,16 @@
         <v>44627</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F66" s="8">
         <v>2.92</v>
@@ -5489,10 +5553,10 @@
         <v>44627</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -5512,16 +5576,16 @@
         <v>44627</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F68" s="8">
         <v>2.0699999999999998</v>
@@ -5535,16 +5599,16 @@
         <v>44627</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F69" s="8">
         <v>2.33</v>
@@ -5558,16 +5622,16 @@
         <v>44627</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F70" s="8">
         <v>2.15</v>
@@ -5581,16 +5645,16 @@
         <v>44627</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F71" s="8">
         <v>74.33</v>
@@ -5604,10 +5668,10 @@
         <v>44627</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -5627,16 +5691,16 @@
         <v>44627</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F73" s="8">
         <v>100</v>
@@ -5650,10 +5714,10 @@
         <v>44627</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -5673,16 +5737,16 @@
         <v>44627</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F75" s="8">
         <v>100</v>
@@ -5696,16 +5760,16 @@
         <v>44627</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F76" s="8">
         <v>0.43</v>
@@ -5719,16 +5783,16 @@
         <v>44627</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F77" s="8">
         <v>1.03</v>
@@ -5742,16 +5806,16 @@
         <v>44627</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F78" s="8">
         <v>0.79</v>
@@ -5765,16 +5829,16 @@
         <v>44627</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F79" s="8">
         <v>0.28000000000000003</v>
@@ -5788,16 +5852,16 @@
         <v>44627</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F80" s="8">
         <v>97.47</v>
@@ -5811,16 +5875,16 @@
         <v>44627</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F81" s="8">
         <v>100</v>
@@ -5837,13 +5901,13 @@
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F82" s="8">
         <v>100</v>
@@ -5857,16 +5921,16 @@
         <v>44627</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F83" s="8">
         <v>100</v>
@@ -5880,16 +5944,16 @@
         <v>44627</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F84" s="8">
         <v>100</v>
@@ -5903,16 +5967,16 @@
         <v>44627</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F85" s="8">
         <v>1.3</v>
@@ -5926,16 +5990,16 @@
         <v>44627</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F86" s="8">
         <v>0.1</v>
@@ -5949,16 +6013,16 @@
         <v>44627</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F87" s="8">
         <v>0.2</v>
@@ -5972,16 +6036,16 @@
         <v>44627</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F88" s="8">
         <v>0.4</v>
@@ -5995,16 +6059,16 @@
         <v>44627</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F89" s="8">
         <v>30.4</v>
@@ -6018,16 +6082,16 @@
         <v>44627</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F90" s="8">
         <v>2.5</v>
@@ -6041,16 +6105,16 @@
         <v>44627</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F91" s="8">
         <v>0.4</v>
@@ -6064,16 +6128,16 @@
         <v>44627</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F92" s="8">
         <v>0.3</v>
@@ -6087,16 +6151,16 @@
         <v>44627</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F93" s="8">
         <v>1.7999999999999998</v>
@@ -6110,16 +6174,16 @@
         <v>44627</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F94" s="8">
         <v>1.6</v>
@@ -6133,16 +6197,16 @@
         <v>44627</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F95" s="8">
         <v>0.6</v>
@@ -6156,16 +6220,16 @@
         <v>44627</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F96" s="8">
         <v>1.0999999999999999</v>
@@ -6179,16 +6243,16 @@
         <v>44627</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F97" s="8">
         <v>0.1</v>
@@ -6202,16 +6266,16 @@
         <v>44627</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F98" s="8">
         <v>0.1</v>
@@ -6225,16 +6289,16 @@
         <v>44627</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F99" s="8">
         <v>0.5</v>
@@ -6248,16 +6312,16 @@
         <v>44627</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F100" s="8">
         <v>4.3999999999999995</v>
@@ -6271,16 +6335,16 @@
         <v>44627</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F101" s="8">
         <v>0.1</v>
@@ -6294,16 +6358,16 @@
         <v>44627</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F102" s="9">
         <v>0.1</v>
@@ -6317,16 +6381,16 @@
         <v>44627</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F103" s="8">
         <v>0.2</v>
@@ -6340,16 +6404,16 @@
         <v>44627</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F104" s="8">
         <v>0.8</v>
@@ -6363,16 +6427,16 @@
         <v>44627</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F105" s="8">
         <v>0.1</v>
@@ -6386,16 +6450,16 @@
         <v>44627</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F106" s="8">
         <v>0.2</v>
@@ -6409,10 +6473,10 @@
         <v>44627</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -6432,16 +6496,16 @@
         <v>44627</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F108" s="8">
         <v>0.1</v>
@@ -6455,16 +6519,16 @@
         <v>44627</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F109" s="8">
         <v>0.1</v>
@@ -6478,16 +6542,16 @@
         <v>44627</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F110" s="8">
         <v>0.1</v>
@@ -6501,16 +6565,16 @@
         <v>44627</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F111" s="8">
         <v>0.2</v>
@@ -6524,16 +6588,16 @@
         <v>44627</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F112" s="8">
         <v>0.3</v>
@@ -6547,16 +6611,16 @@
         <v>44627</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F113" s="8">
         <v>0.2</v>
@@ -6570,16 +6634,16 @@
         <v>44627</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F114" s="8">
         <v>0.3</v>
@@ -6593,16 +6657,16 @@
         <v>44627</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F115" s="8">
         <v>1</v>
@@ -6616,16 +6680,16 @@
         <v>44627</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F116" s="8">
         <v>0.4</v>
@@ -6639,16 +6703,16 @@
         <v>44627</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F117" s="8">
         <v>0.70000000000000007</v>
@@ -6662,16 +6726,16 @@
         <v>44627</v>
       </c>
       <c r="B118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F118" s="8">
         <v>1.7000000000000002</v>
@@ -6685,16 +6749,16 @@
         <v>44627</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F119" s="8">
         <v>1.4000000000000001</v>
@@ -6708,16 +6772,16 @@
         <v>44627</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F120" s="8">
         <v>0.2</v>
@@ -6731,16 +6795,16 @@
         <v>44627</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F121" s="8">
         <v>2.8000000000000003</v>
@@ -6754,16 +6818,16 @@
         <v>44627</v>
       </c>
       <c r="B122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F122" s="8">
         <v>0.1</v>
@@ -6777,16 +6841,16 @@
         <v>44627</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F123" s="8">
         <v>42.9</v>
@@ -6803,13 +6867,13 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F124" s="8">
         <v>100</v>
@@ -6823,16 +6887,16 @@
         <v>44628</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F125" s="8">
         <v>44.99</v>
@@ -6846,16 +6910,16 @@
         <v>44628</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F126" s="8">
         <v>14.76</v>
@@ -6869,16 +6933,16 @@
         <v>44628</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F127" s="8">
         <v>6.07</v>
@@ -6892,16 +6956,16 @@
         <v>44628</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F128" s="8">
         <v>5.19</v>
@@ -6915,16 +6979,16 @@
         <v>44628</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F129" s="8">
         <v>5.17</v>
@@ -6938,16 +7002,16 @@
         <v>44628</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F130" s="8">
         <v>4.29</v>
@@ -6961,16 +7025,16 @@
         <v>44628</v>
       </c>
       <c r="B131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F131" s="8">
         <v>4.13</v>
@@ -6984,16 +7048,16 @@
         <v>44628</v>
       </c>
       <c r="B132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F132" s="8">
         <v>4</v>
@@ -7007,16 +7071,16 @@
         <v>44628</v>
       </c>
       <c r="B133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F133" s="8">
         <v>3.23</v>
@@ -7030,16 +7094,16 @@
         <v>44628</v>
       </c>
       <c r="B134" t="s">
+        <v>119</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C134" t="s">
-        <v>50</v>
-      </c>
-      <c r="D134" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F134" s="8">
         <v>2.17</v>
@@ -7053,10 +7117,10 @@
         <v>44628</v>
       </c>
       <c r="B135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
@@ -7076,16 +7140,16 @@
         <v>44628</v>
       </c>
       <c r="B136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F136" s="8">
         <v>100</v>
@@ -7099,16 +7163,16 @@
         <v>44628</v>
       </c>
       <c r="B137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F137" s="8">
         <v>100</v>
@@ -7122,16 +7186,16 @@
         <v>44628</v>
       </c>
       <c r="B138" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F138" s="8">
         <v>100</v>
@@ -7145,16 +7209,16 @@
         <v>44628</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F139" s="8">
         <v>100</v>
@@ -7164,11 +7228,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD124" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:XFD124">
-      <sortCondition ref="G1:G124"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G139" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7179,7 +7239,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7193,19 +7253,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -7213,7 +7273,7 @@
         <v>44116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -7230,7 +7290,7 @@
         <v>44119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -7247,7 +7307,7 @@
         <v>44551</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>-7000</v>
@@ -7268,8 +7328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940DB676-0691-4D6D-967D-ED592843676B}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7285,7 +7345,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -7294,36 +7354,36 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>103</v>
-      </c>
-      <c r="L1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -7333,19 +7393,19 @@
         <v>VCLT-USD</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
         <v>112</v>
       </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -7362,7 +7422,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7372,19 +7432,19 @@
         <v>TLT-USD</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
         <v>112</v>
       </c>
-      <c r="G3" t="s">
-        <v>113</v>
-      </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7401,7 +7461,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -7411,19 +7471,19 @@
         <v>XLF-USD</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
         <v>112</v>
       </c>
-      <c r="G4" t="s">
-        <v>113</v>
-      </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7440,7 +7500,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -7450,19 +7510,19 @@
         <v>PSP-USD</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
         <v>112</v>
       </c>
-      <c r="G5" t="s">
-        <v>113</v>
-      </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7479,7 +7539,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -7489,19 +7549,19 @@
         <v>ESGV-USD</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7519,4 +7579,917 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E0FC90-FDA7-4CD4-B785-694A9C9D6F8B}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{88E0FC90-FDA7-4CD4-B785-694A9C9D6F8B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H34">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011551E0-75DA-4B7D-867C-069AD5668933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239D7C42-8530-4310-985C-6A9F14A6F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-18195" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27915" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetSector" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AssetChar!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AssetCountry!$A$1:$G$139</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AssetSector!$A$1:$G$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AssetCountry!$A$1:$G$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AssetSector!$A$1:$G$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="158">
   <si>
     <t>Datadate</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>GMBTU</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Option Strategy</t>
+  </si>
+  <si>
+    <t>SWVL</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1013,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,9 +1027,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1032,12 +1038,12 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1393,24 +1399,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44074</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44074</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44074</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44074</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44074</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44074</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44074</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44074</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44074</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44074</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44074</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44074</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44074</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44074</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44074</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44074</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44074</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44074</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44074</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44074</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44074</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44104</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44104</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44104</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44104</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44104</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44104</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44104</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44104</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44104</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44104</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44104</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44074</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44074</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44074</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44074</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44074</v>
       </c>
@@ -2330,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44074</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44074</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44074</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44074</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44105</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44105</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44105</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44105</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44627</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44627</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44627</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44627</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44627</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44627</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44627</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44627</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44627</v>
       </c>
@@ -2721,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44627</v>
       </c>
@@ -2735,21 +2741,21 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44627</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
         <v>49</v>
@@ -2758,21 +2764,21 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>13.13</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44627</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
@@ -2781,24 +2787,24 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>10.09</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44627</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -2807,18 +2813,18 @@
         <v>14</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>5.63</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44627</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
@@ -2827,44 +2833,44 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44627</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>27.819999999999993</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44627</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>49</v>
@@ -2873,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F64">
         <v>100</v>
@@ -2882,21 +2888,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44627</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <v>100</v>
@@ -2905,12 +2911,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44627</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
         <v>50</v>
@@ -2919,7 +2925,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66">
         <v>100</v>
@@ -2928,12 +2934,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
         <v>49</v>
@@ -2942,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>100</v>
@@ -2951,12 +2957,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44627</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
         <v>50</v>
@@ -2974,122 +2980,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44627</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
         <v>12</v>
       </c>
-      <c r="F69">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B70" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70">
-        <v>6</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
       <c r="F71">
-        <v>18.5</v>
+        <v>100</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44627</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>12.4</v>
+        <v>100</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44627</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73">
-        <v>12.2</v>
+        <v>100</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44627</v>
       </c>
@@ -3103,16 +3109,16 @@
         <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F74">
-        <v>3.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44627</v>
       </c>
@@ -3126,16 +3132,16 @@
         <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44627</v>
       </c>
@@ -3149,16 +3155,16 @@
         <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F76">
-        <v>4.9000000000000004</v>
+        <v>18.5</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44627</v>
       </c>
@@ -3172,16 +3178,16 @@
         <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>12.4</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44627</v>
       </c>
@@ -3195,16 +3201,16 @@
         <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>7.2</v>
+        <v>12.2</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44627</v>
       </c>
@@ -3218,131 +3224,131 @@
         <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44627</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C80" t="s">
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>3.7</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82">
         <v>8</v>
       </c>
-      <c r="F80">
-        <v>10</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81">
-        <v>12</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>6.1</v>
-      </c>
       <c r="G82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44627</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s">
         <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44627</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
         <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F84">
-        <v>11.2</v>
+        <v>3.3</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44627</v>
       </c>
@@ -3356,16 +3362,16 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>13.1</v>
+        <v>10</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44627</v>
       </c>
@@ -3379,16 +3385,16 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F86">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44627</v>
       </c>
@@ -3402,16 +3408,16 @@
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>28.7</v>
+        <v>6.1</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44627</v>
       </c>
@@ -3425,16 +3431,16 @@
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F88">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44627</v>
       </c>
@@ -3448,16 +3454,16 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F89">
-        <v>2.7</v>
+        <v>11.2</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44627</v>
       </c>
@@ -3471,155 +3477,155 @@
         <v>7</v>
       </c>
       <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <v>13.1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>7.8</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92">
+        <v>28.7</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>2.5</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94">
+        <v>2.7</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
         <v>18</v>
       </c>
-      <c r="F90">
+      <c r="F95">
         <v>2.5</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>44628</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B96" t="s">
         <v>119</v>
       </c>
-      <c r="C91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="C96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F96" s="7">
         <f>69.56+8.58</f>
         <v>78.14</v>
       </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="8">
-        <v>9.69</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B93" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="8">
-        <v>8.14</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="8">
-        <v>3.63</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="8">
-        <v>0.15</v>
-      </c>
       <c r="G96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44628</v>
       </c>
@@ -3633,21 +3639,21 @@
         <v>7</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F97" s="8">
-        <v>0.32</v>
+        <v>14</v>
+      </c>
+      <c r="F97" s="7">
+        <v>9.69</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44628</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
         <v>49</v>
@@ -3656,21 +3662,21 @@
         <v>7</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F98" s="8">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="F98" s="7">
+        <v>8.14</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44628</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
         <v>49</v>
@@ -3679,21 +3685,21 @@
         <v>7</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F99" s="8">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="F99" s="7">
+        <v>3.63</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44628</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
         <v>49</v>
@@ -3702,21 +3708,21 @@
         <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="8">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0.68</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44628</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
         <v>49</v>
@@ -3724,22 +3730,22 @@
       <c r="D101" t="s">
         <v>7</v>
       </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101">
-        <v>3.2</v>
+      <c r="E101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0.15</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44628</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
         <v>49</v>
@@ -3747,22 +3753,22 @@
       <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102">
-        <v>16.5</v>
+      <c r="E102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0.32</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44628</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
         <v>49</v>
@@ -3770,22 +3776,22 @@
       <c r="D103" t="s">
         <v>7</v>
       </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103">
-        <v>4.4000000000000004</v>
+      <c r="E103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="7">
+        <v>100</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44628</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
         <v>49</v>
@@ -3793,22 +3799,22 @@
       <c r="D104" t="s">
         <v>7</v>
       </c>
-      <c r="E104" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104">
-        <v>0.2</v>
+      <c r="E104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" s="7">
+        <v>100</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44628</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
         <v>49</v>
@@ -3816,17 +3822,17 @@
       <c r="D105" t="s">
         <v>7</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F105">
-        <v>11</v>
+      <c r="F105" s="7">
+        <v>100</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44628</v>
       </c>
@@ -3840,16 +3846,16 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F106">
-        <v>13.4</v>
+        <v>3.2</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44628</v>
       </c>
@@ -3863,16 +3869,16 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F107">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44628</v>
       </c>
@@ -3886,16 +3892,16 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F108">
-        <v>33.200000000000003</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44628</v>
       </c>
@@ -3909,16 +3915,16 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44628</v>
       </c>
@@ -3932,16 +3938,16 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F110">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44628</v>
       </c>
@@ -3955,45 +3961,179 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111">
+        <v>13.4</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>11</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B115" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115">
+        <v>3.9</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
         <v>18</v>
       </c>
-      <c r="F111">
+      <c r="F116">
         <v>1.2</v>
       </c>
-      <c r="G111">
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+      <c r="G117">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G90" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:G90">
-      <sortCondition ref="B1:B90"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4016,79 +4156,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44074</v>
+        <v>44627</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(B2,AssetSector!$B$1:$C$90,2,FALSE)</f>
-        <v>ETF</v>
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="8">
-        <v>5.2</v>
+        <v>53</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44074</v>
+        <v>44627</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(B3,AssetSector!$B$1:$C$90,2,FALSE)</f>
-        <v>ETF</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="7">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44074</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,AssetSector!$B$1:$C$90,2,FALSE)</f>
-        <v>ETF</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
+      <c r="F4" s="7">
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44074</v>
       </c>
@@ -4096,23 +4233,23 @@
         <v>19</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B5,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="8">
-        <v>41.5</v>
+        <v>77</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5.2</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44074</v>
       </c>
@@ -4120,23 +4257,23 @@
         <v>19</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B6,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.1</v>
+        <v>53</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44074</v>
       </c>
@@ -4144,23 +4281,23 @@
         <v>19</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B7,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="8">
-        <v>13.3</v>
+        <v>56</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44074</v>
       </c>
@@ -4168,143 +4305,142 @@
         <v>19</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B8,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="8">
-        <v>36.4</v>
+        <v>54</v>
+      </c>
+      <c r="F8" s="7">
+        <v>41.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44105</v>
+        <v>44074</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B9,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="8">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B10,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="8">
-        <v>4.5</v>
+        <v>55</v>
+      </c>
+      <c r="F10" s="7">
+        <v>13.3</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B11,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="8">
-        <v>41.44</v>
+        <v>52</v>
+      </c>
+      <c r="F11" s="7">
+        <v>36.4</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B12,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="8">
-        <v>8.15</v>
+        <v>53</v>
+      </c>
+      <c r="F12" s="7">
+        <v>100</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44104</v>
+        <v>44627</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(B13,AssetSector!$B$1:$C$90,2,FALSE)</f>
-        <v>ETF</v>
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.22</v>
+        <v>52</v>
+      </c>
+      <c r="F13" s="7">
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44104</v>
       </c>
@@ -4312,23 +4448,23 @@
         <v>22</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B14,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1.7</v>
+        <v>58</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4.5</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44104</v>
       </c>
@@ -4336,23 +4472,23 @@
         <v>22</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B15,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1.61</v>
+        <v>65</v>
+      </c>
+      <c r="F15" s="7">
+        <v>41.44</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -4360,23 +4496,23 @@
         <v>22</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(B16,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B16,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="8">
-        <v>5.75</v>
+        <v>68</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8.15</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44104</v>
       </c>
@@ -4384,23 +4520,23 @@
         <v>22</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(B17,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B17,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.22</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44104</v>
       </c>
@@ -4408,23 +4544,23 @@
         <v>22</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(B18,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B18,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="8">
-        <v>2.75</v>
+        <v>73</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.7</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44104</v>
       </c>
@@ -4432,23 +4568,23 @@
         <v>22</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(B19,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B19,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.51</v>
+        <v>74</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.61</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44104</v>
       </c>
@@ -4456,23 +4592,23 @@
         <v>22</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(B20,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B20,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="8">
-        <v>11.97</v>
+        <v>20</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5.75</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44104</v>
       </c>
@@ -4480,23 +4616,23 @@
         <v>22</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(B21,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B21,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="8">
-        <v>12.64</v>
+        <v>70</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44104</v>
       </c>
@@ -4504,167 +4640,165 @@
         <v>22</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(B22,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B22,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1.74</v>
+        <v>71</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2.75</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(B23,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B23,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="8">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3.51</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(B24,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B24,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="8">
-        <v>8.6999999999999993</v>
+        <v>67</v>
+      </c>
+      <c r="F24" s="7">
+        <v>11.97</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(B25,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B25,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="8">
-        <v>2.7</v>
+        <v>66</v>
+      </c>
+      <c r="F25" s="7">
+        <v>12.64</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(B26,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B26,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="8">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.74</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44074</v>
+        <v>44627</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="str">
-        <f>VLOOKUP(B27,AssetSector!$B$1:$C$90,2,FALSE)</f>
-        <v>ETF</v>
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.9</v>
+        <v>52</v>
+      </c>
+      <c r="F27" s="7">
+        <v>100</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44074</v>
+        <v>44628</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(B28,AssetSector!$B$1:$C$90,2,FALSE)</f>
-        <v>ETF</v>
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="8">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="F28" s="7">
+        <v>100</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44074</v>
       </c>
@@ -4672,23 +4806,23 @@
         <v>21</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(B29,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B29,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.6</v>
+        <v>57</v>
+      </c>
+      <c r="F29" s="7">
+        <v>9</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44074</v>
       </c>
@@ -4696,23 +4830,23 @@
         <v>21</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(B30,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B30,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5.9</v>
+        <v>58</v>
+      </c>
+      <c r="F30" s="7">
+        <v>8.6999999999999993</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44074</v>
       </c>
@@ -4720,23 +4854,23 @@
         <v>21</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(B31,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B31,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="8">
-        <v>4.7</v>
+        <v>62</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2.7</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44074</v>
       </c>
@@ -4744,23 +4878,23 @@
         <v>21</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(B32,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B32,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="8">
-        <v>4.5</v>
+        <v>63</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44074</v>
       </c>
@@ -4768,217 +4902,219 @@
         <v>21</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(B33,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B33,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="8">
-        <v>57.1</v>
+        <v>64</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.9</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44105</v>
+        <v>44074</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(B34,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B34,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="8">
-        <v>100</v>
+        <v>61</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44105</v>
+        <v>44074</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(B35,AssetSector!$B$1:$C$90,2,FALSE)</f>
-        <v>Company</v>
+        <f>VLOOKUP(B35,AssetSector!$B$1:$C$95,2,FALSE)</f>
+        <v>ETF</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="8">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.6</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44105</v>
+        <v>44074</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(B36,AssetSector!$B$1:$C$90,2,FALSE)</f>
-        <v>Company</v>
+        <f>VLOOKUP(B36,AssetSector!$B$1:$C$95,2,FALSE)</f>
+        <v>ETF</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="8">
-        <v>100</v>
+        <v>59</v>
+      </c>
+      <c r="F36" s="7">
+        <v>5.9</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44074</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(B37,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B37,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="8">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="F37" s="7">
+        <v>4.7</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44074</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(B38,AssetSector!$B$1:$C$90,2,FALSE)</f>
+        <f>VLOOKUP(B38,AssetSector!$B$1:$C$95,2,FALSE)</f>
         <v>ETF</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="8">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4.5</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44627</v>
+        <v>44074</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(B39,AssetSector!$B$1:$C$95,2,FALSE)</f>
+        <v>ETF</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="8">
+        <v>52</v>
+      </c>
+      <c r="F39" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(B40,AssetSector!$B$1:$C$95,2,FALSE)</f>
+        <v>ETF</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7">
         <v>100</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="7">
         <v>100</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="8">
-        <v>100</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44627</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -4989,65 +5125,65 @@
       <c r="E42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>100</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44627</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="8">
-        <v>100</v>
+      <c r="E43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1.85</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44627</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="8">
-        <v>100</v>
+      <c r="E44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2.1</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44627</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
         <v>49</v>
@@ -5055,17 +5191,17 @@
       <c r="D45" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="8">
-        <v>100</v>
+      <c r="E45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="9">
+        <v>7.67</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44627</v>
       </c>
@@ -5079,16 +5215,16 @@
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="10">
-        <v>1.85</v>
+        <v>65</v>
+      </c>
+      <c r="F46" s="9">
+        <v>6.84</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44627</v>
       </c>
@@ -5102,16 +5238,16 @@
         <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="10">
-        <v>2.1</v>
+        <v>62</v>
+      </c>
+      <c r="F47" s="9">
+        <v>14.38</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44627</v>
       </c>
@@ -5125,16 +5261,16 @@
         <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="10">
-        <v>7.67</v>
+        <v>63</v>
+      </c>
+      <c r="F48" s="9">
+        <v>3.58</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44627</v>
       </c>
@@ -5148,16 +5284,16 @@
         <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="10">
-        <v>6.84</v>
+        <v>67</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2.06</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44627</v>
       </c>
@@ -5170,17 +5306,17 @@
       <c r="D50" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>62</v>
+      <c r="E50" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F50" s="10">
-        <v>14.38</v>
+        <v>1.65</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44627</v>
       </c>
@@ -5193,17 +5329,17 @@
       <c r="D51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="10">
-        <v>3.58</v>
+      <c r="E51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="11">
+        <v>6.34</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44627</v>
       </c>
@@ -5217,16 +5353,16 @@
         <v>7</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="10">
-        <v>2.06</v>
+        <v>90</v>
+      </c>
+      <c r="F52" s="9">
+        <v>5.62</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44627</v>
       </c>
@@ -5239,17 +5375,17 @@
       <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="11">
-        <v>1.65</v>
+      <c r="E53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5.55</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44627</v>
       </c>
@@ -5262,17 +5398,17 @@
       <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="12">
-        <v>6.34</v>
+      <c r="E54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="10">
+        <v>3.9</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44627</v>
       </c>
@@ -5286,44 +5422,44 @@
         <v>7</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="10">
-        <v>5.62</v>
+        <v>52</v>
+      </c>
+      <c r="F55" s="9">
+        <v>38.46</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44627</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="10">
-        <v>5.55</v>
+      <c r="E56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="7">
+        <v>100</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44627</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
         <v>49</v>
@@ -5331,22 +5467,22 @@
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="13">
-        <v>3.9</v>
+      <c r="E57" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="16">
+        <v>63.75</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44627</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
         <v>49</v>
@@ -5354,45 +5490,45 @@
       <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="10">
-        <v>38.46</v>
+      <c r="E58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="7">
+        <v>36.24</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44627</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>52</v>
+      <c r="E59" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="F59" s="8">
-        <v>100</v>
+        <v>2.17</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44627</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
@@ -5401,16 +5537,16 @@
         <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="8">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="F60" s="7">
+        <v>5.24</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44627</v>
       </c>
@@ -5423,17 +5559,17 @@
       <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="9">
-        <v>2.17</v>
+      <c r="E61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="7">
+        <v>2.11</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44627</v>
       </c>
@@ -5447,16 +5583,16 @@
         <v>7</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62" s="8">
-        <v>5.24</v>
+        <v>63</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1.6</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44627</v>
       </c>
@@ -5470,16 +5606,16 @@
         <v>7</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="8">
-        <v>2.11</v>
+        <v>81</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1.38</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44627</v>
       </c>
@@ -5493,16 +5629,16 @@
         <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" s="8">
-        <v>1.6</v>
+        <v>54</v>
+      </c>
+      <c r="F64" s="7">
+        <v>2.92</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44627</v>
       </c>
@@ -5516,16 +5652,16 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="8">
-        <v>1.38</v>
+        <v>20</v>
+      </c>
+      <c r="F65" s="7">
+        <v>3.7000000000000028</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44627</v>
       </c>
@@ -5539,16 +5675,16 @@
         <v>7</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" s="8">
-        <v>2.92</v>
+        <v>79</v>
+      </c>
+      <c r="F66" s="7">
+        <v>2.0699999999999998</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
@@ -5562,16 +5698,16 @@
         <v>7</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="8">
-        <v>3.7000000000000028</v>
+        <v>76</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2.33</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44627</v>
       </c>
@@ -5585,16 +5721,16 @@
         <v>7</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" s="8">
-        <v>2.0699999999999998</v>
+        <v>77</v>
+      </c>
+      <c r="F68" s="7">
+        <v>2.15</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44627</v>
       </c>
@@ -5608,21 +5744,21 @@
         <v>7</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="8">
-        <v>2.33</v>
+        <v>52</v>
+      </c>
+      <c r="F69" s="7">
+        <v>74.33</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44627</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>49</v>
@@ -5631,44 +5767,44 @@
         <v>7</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="8">
-        <v>2.15</v>
+        <v>20</v>
+      </c>
+      <c r="F70" s="7">
+        <v>100</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44627</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="8">
-        <v>74.33</v>
+        <v>53</v>
+      </c>
+      <c r="F71" s="7">
+        <v>100</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44627</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
@@ -5679,19 +5815,19 @@
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="7">
         <v>100</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44627</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
         <v>50</v>
@@ -5700,591 +5836,594 @@
         <v>7</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="7">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="7">
+        <v>44.99</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="7">
+        <v>14.76</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="7">
+        <v>6.07</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F77" s="7">
+        <v>5.19</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="7">
+        <v>5.17</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="7">
+        <v>4.29</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="7">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="7">
+        <v>3.23</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F83" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="7">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="7">
+        <v>97.47</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" s="7">
         <v>100</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="8">
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" t="str">
+        <f>VLOOKUP(B91,AssetSector!$B$1:$C$95,2,FALSE)</f>
+        <v>Company</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="7">
         <v>100</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" t="s">
         <v>50</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F92" s="7">
         <v>100</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" s="8">
-        <v>0.43</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F77" s="8">
-        <v>1.03</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B79" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F80" s="8">
-        <v>97.47</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="F93" s="7">
+        <v>100</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="str">
+        <f>VLOOKUP(B94,AssetSector!$B$1:$C$95,2,FALSE)</f>
+        <v>Company</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" s="7">
+        <v>100</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95" s="7">
+        <v>100</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" t="s">
         <v>50</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F96" s="7">
         <v>100</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F82" s="8">
-        <v>100</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="8">
-        <v>100</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="8">
-        <v>100</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F86" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B88" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F88" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B89" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F89" s="8">
-        <v>30.4</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B90" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F90" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F91" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B92" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F92" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F93" s="8">
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F94" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F95" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>44627</v>
-      </c>
-      <c r="B96" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F96" s="8">
-        <v>1.0999999999999999</v>
-      </c>
       <c r="G96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44627</v>
+        <v>44074</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C97" t="str">
+        <f>VLOOKUP(B97,AssetSector!$B$1:$C$95,2,FALSE)</f>
+        <v>ETF</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F97" s="8">
-        <v>0.1</v>
+        <v>53</v>
+      </c>
+      <c r="F97" s="7">
+        <v>100</v>
       </c>
       <c r="G97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
         <v>49</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F98" s="8">
-        <v>0.1</v>
+        <v>52</v>
+      </c>
+      <c r="F98" s="7">
+        <v>100</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44627</v>
       </c>
@@ -6298,16 +6437,16 @@
         <v>24</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F99" s="8">
-        <v>0.5</v>
+        <v>57</v>
+      </c>
+      <c r="F99" s="7">
+        <v>1.3</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44627</v>
       </c>
@@ -6321,16 +6460,16 @@
         <v>24</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="8">
-        <v>4.3999999999999995</v>
+        <v>89</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0.1</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44627</v>
       </c>
@@ -6344,16 +6483,16 @@
         <v>24</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F101" s="8">
-        <v>0.1</v>
+        <v>84</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0.2</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44627</v>
       </c>
@@ -6366,17 +6505,17 @@
       <c r="D102" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F102" s="9">
-        <v>0.1</v>
+      <c r="E102" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0.4</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44627</v>
       </c>
@@ -6390,16 +6529,16 @@
         <v>24</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F103" s="8">
-        <v>0.2</v>
+        <v>53</v>
+      </c>
+      <c r="F103" s="7">
+        <v>30.4</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44627</v>
       </c>
@@ -6413,16 +6552,16 @@
         <v>24</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" s="8">
-        <v>0.8</v>
+        <v>65</v>
+      </c>
+      <c r="F104" s="7">
+        <v>2.5</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44627</v>
       </c>
@@ -6436,16 +6575,16 @@
         <v>24</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F105" s="8">
-        <v>0.1</v>
+        <v>62</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0.4</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44627</v>
       </c>
@@ -6459,16 +6598,16 @@
         <v>24</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F106" s="8">
-        <v>0.2</v>
+        <v>56</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0.3</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44627</v>
       </c>
@@ -6482,16 +6621,16 @@
         <v>24</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107" s="8">
-        <v>0.2</v>
+        <v>78</v>
+      </c>
+      <c r="F107" s="7">
+        <v>1.7999999999999998</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44627</v>
       </c>
@@ -6505,16 +6644,16 @@
         <v>24</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F108" s="8">
-        <v>0.1</v>
+        <v>63</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1.6</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44627</v>
       </c>
@@ -6528,16 +6667,16 @@
         <v>24</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F109" s="8">
-        <v>0.1</v>
+        <v>81</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0.6</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44627</v>
       </c>
@@ -6551,16 +6690,16 @@
         <v>24</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F110" s="8">
-        <v>0.1</v>
+        <v>68</v>
+      </c>
+      <c r="F110" s="7">
+        <v>1.0999999999999999</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44627</v>
       </c>
@@ -6574,16 +6713,16 @@
         <v>24</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F111" s="8">
-        <v>0.2</v>
+        <v>75</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0.1</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44627</v>
       </c>
@@ -6597,16 +6736,16 @@
         <v>24</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" s="8">
-        <v>0.3</v>
+        <v>64</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0.1</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44627</v>
       </c>
@@ -6620,16 +6759,16 @@
         <v>24</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F113" s="8">
-        <v>0.2</v>
+        <v>61</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.5</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44627</v>
       </c>
@@ -6643,16 +6782,16 @@
         <v>24</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F114" s="8">
-        <v>0.3</v>
+        <v>54</v>
+      </c>
+      <c r="F114" s="7">
+        <v>4.3999999999999995</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44627</v>
       </c>
@@ -6666,16 +6805,16 @@
         <v>24</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F115" s="8">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.1</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44627</v>
       </c>
@@ -6688,17 +6827,17 @@
       <c r="D116" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>79</v>
+      <c r="E116" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F116" s="8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44627</v>
       </c>
@@ -6712,16 +6851,16 @@
         <v>24</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F117" s="8">
-        <v>0.70000000000000007</v>
+        <v>74</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0.2</v>
       </c>
       <c r="G117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44627</v>
       </c>
@@ -6735,16 +6874,16 @@
         <v>24</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F118" s="8">
-        <v>1.7000000000000002</v>
+        <v>59</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0.8</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44627</v>
       </c>
@@ -6758,16 +6897,16 @@
         <v>24</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F119" s="8">
-        <v>1.4000000000000001</v>
+        <v>60</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0.1</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44627</v>
       </c>
@@ -6781,16 +6920,16 @@
         <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F120" s="8">
+        <v>83</v>
+      </c>
+      <c r="F120" s="7">
         <v>0.2</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44627</v>
       </c>
@@ -6804,16 +6943,16 @@
         <v>24</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F121" s="8">
-        <v>2.8000000000000003</v>
+        <v>20</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0.2</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44627</v>
       </c>
@@ -6827,16 +6966,16 @@
         <v>24</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F122" s="8">
+        <v>87</v>
+      </c>
+      <c r="F122" s="7">
         <v>0.1</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44627</v>
       </c>
@@ -6850,346 +6989,347 @@
         <v>24</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F123" s="8">
-        <v>42.9</v>
+        <v>86</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0.1</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44627</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
         <v>49</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F124" s="8">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="F124" s="7">
+        <v>0.1</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
         <v>49</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F125" s="8">
-        <v>44.99</v>
+        <v>70</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0.2</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
         <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F127" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F131" s="7">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B132" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" s="7">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="7">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F134" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B135" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" t="s">
+        <v>49</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F126" s="8">
-        <v>14.76</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B127" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F127" s="8">
-        <v>6.07</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B128" t="s">
-        <v>119</v>
-      </c>
-      <c r="C128" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F128" s="8">
-        <v>5.19</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B129" t="s">
-        <v>119</v>
-      </c>
-      <c r="C129" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F129" s="8">
-        <v>5.17</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B130" t="s">
-        <v>119</v>
-      </c>
-      <c r="C130" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F130" s="8">
-        <v>4.29</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B131" t="s">
-        <v>119</v>
-      </c>
-      <c r="C131" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F131" s="8">
-        <v>4.13</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B132" t="s">
-        <v>119</v>
-      </c>
-      <c r="C132" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F132" s="8">
-        <v>4</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B133" t="s">
-        <v>119</v>
-      </c>
-      <c r="C133" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F133" s="8">
-        <v>3.23</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B134" t="s">
-        <v>119</v>
-      </c>
-      <c r="C134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D134" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F134" s="8">
-        <v>2.17</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B135" t="s">
-        <v>119</v>
-      </c>
-      <c r="C135" t="s">
-        <v>49</v>
-      </c>
-      <c r="D135" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" s="8">
-        <v>6</v>
+      <c r="F135" s="7">
+        <v>2.8000000000000003</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="C136" t="s">
         <v>49</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F136" s="8">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0.1</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B137" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C137" t="s">
         <v>49</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F137" s="8">
-        <v>100</v>
+      <c r="F137" s="7">
+        <v>42.9</v>
       </c>
       <c r="G137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>44628</v>
+        <v>44074</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
-      </c>
-      <c r="C138" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="C138" t="str">
+        <f>VLOOKUP(B138,AssetSector!$B$1:$C$95,2,FALSE)</f>
+        <v>ETF</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -7197,19 +7337,19 @@
       <c r="E138" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F138" s="8">
+      <c r="F138" s="7">
         <v>100</v>
       </c>
       <c r="G138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>49</v>
@@ -7220,15 +7360,61 @@
       <c r="E139" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F139" s="8">
+      <c r="F139" s="7">
         <v>100</v>
       </c>
       <c r="G139">
         <v>1</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B140" t="s">
+        <v>113</v>
+      </c>
+      <c r="C140" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F140" s="7">
+        <v>100</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B141" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" t="s">
+        <v>50</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>52</v>
+      </c>
+      <c r="F141" s="17">
+        <v>100</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G139" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:G140" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7242,16 +7428,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -7268,7 +7454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44116</v>
       </c>
@@ -7281,11 +7467,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>44627.724999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44119</v>
       </c>
@@ -7298,11 +7484,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>44627.724999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44551</v>
       </c>
@@ -7315,7 +7501,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>44627.724999999999</v>
       </c>
     </row>
@@ -7329,21 +7515,21 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -7381,7 +7567,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -7392,7 +7578,7 @@
         <f>A2&amp;"-"&amp;B2</f>
         <v>VCLT-USD</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>124</v>
       </c>
       <c r="E2" t="s">
@@ -7416,11 +7602,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="12">
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -7431,7 +7617,7 @@
         <f t="shared" ref="C3:C6" si="0">A3&amp;"-"&amp;B3</f>
         <v>TLT-USD</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>125</v>
       </c>
       <c r="E3" t="s">
@@ -7455,11 +7641,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -7470,7 +7656,7 @@
         <f t="shared" si="0"/>
         <v>XLF-USD</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E4" t="s">
@@ -7494,11 +7680,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -7509,7 +7695,7 @@
         <f t="shared" si="0"/>
         <v>PSP-USD</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
@@ -7533,11 +7719,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -7548,7 +7734,7 @@
         <f t="shared" si="0"/>
         <v>ESGV-USD</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>132</v>
       </c>
       <c r="E6" t="s">
@@ -7572,7 +7758,7 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <v>44628.725694444445</v>
       </c>
     </row>
@@ -7583,24 +7769,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E0FC90-FDA7-4CD4-B785-694A9C9D6F8B}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7626,7 +7812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44631</v>
       </c>
@@ -7643,7 +7829,7 @@
         <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>150</v>
@@ -7652,12 +7838,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44631</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -7669,21 +7855,21 @@
         <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44631</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -7704,12 +7890,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44631</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -7721,16 +7907,16 @@
         <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44631</v>
       </c>
@@ -7756,12 +7942,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44631</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -7770,10 +7956,10 @@
         <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
         <v>151</v>
@@ -7782,50 +7968,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44631</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44631</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
         <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
         <v>151</v>
@@ -7834,12 +8020,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44631</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -7851,7 +8037,7 @@
         <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
         <v>151</v>
@@ -7860,12 +8046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44631</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -7877,59 +8063,59 @@
         <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44631</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44631</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
         <v>151</v>
@@ -7938,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44631</v>
       </c>
@@ -7964,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44631</v>
       </c>
@@ -7990,15 +8176,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44631</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -8007,21 +8193,21 @@
         <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44631</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -8033,21 +8219,21 @@
         <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44631</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -8059,27 +8245,27 @@
         <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44631</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
         <v>140</v>
@@ -8088,50 +8274,50 @@
         <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44631</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
         <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44631</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
         <v>140</v>
@@ -8140,21 +8326,21 @@
         <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44631</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -8163,21 +8349,21 @@
         <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44631</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -8198,18 +8384,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44631</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>140</v>
@@ -8218,50 +8404,50 @@
         <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44631</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
         <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44631</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
         <v>140</v>
@@ -8276,12 +8462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44631</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -8290,10 +8476,10 @@
         <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
         <v>152</v>
@@ -8302,12 +8488,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44631</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -8316,10 +8502,10 @@
         <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
         <v>152</v>
@@ -8328,12 +8514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44631</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -8342,10 +8528,10 @@
         <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
         <v>152</v>
@@ -8354,24 +8540,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44631</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
         <v>152</v>
@@ -8380,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44631</v>
       </c>
@@ -8406,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44631</v>
       </c>
@@ -8420,10 +8606,10 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
         <v>152</v>
@@ -8432,12 +8618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44631</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -8449,7 +8635,7 @@
         <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
         <v>153</v>
@@ -8458,12 +8644,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44631</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -8475,12 +8661,38 @@
         <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
         <v>153</v>
       </c>
       <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
     </row>

--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239D7C42-8530-4310-985C-6A9F14A6F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4F435-1C9E-46A4-AAB1-CD7C39A2BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27915" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetSector" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="160">
   <si>
     <t>Datadate</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>SWVL</t>
+  </si>
+  <si>
+    <t>GBTG</t>
+  </si>
+  <si>
+    <t>WBD</t>
   </si>
 </sst>
 </file>
@@ -1399,24 +1405,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44074</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44074</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44074</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44074</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44074</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44074</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44074</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44074</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44074</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44074</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44074</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44074</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44074</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44074</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44074</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44074</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44074</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44074</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44074</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44074</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44074</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44104</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44104</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44104</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44104</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44104</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44104</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44104</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44104</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44104</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44104</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44104</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44074</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44074</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44074</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44074</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44074</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44074</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44074</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44074</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44074</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44105</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44105</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44105</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44105</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44627</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44627</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44627</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44627</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44627</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44627</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44627</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44627</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44627</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44627</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44627</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44627</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44627</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44627</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44627</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44627</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44627</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44627</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44627</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44627</v>
       </c>
@@ -3003,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44627</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44627</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44627</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44627</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44627</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44627</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44627</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44627</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44627</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44627</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44627</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44627</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44627</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44627</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44627</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44627</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44627</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44627</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44627</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44627</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44627</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44627</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44627</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44627</v>
       </c>
@@ -3555,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44627</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44627</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44628</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44628</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44628</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44628</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44628</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44628</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44628</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44628</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44628</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44628</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44628</v>
       </c>
@@ -3855,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44628</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44628</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44628</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44628</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44628</v>
       </c>
@@ -3970,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44628</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44628</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44628</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44628</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44628</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44655</v>
       </c>
@@ -4105,6 +4111,52 @@
         <v>100</v>
       </c>
       <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118">
+        <v>100</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+      <c r="G119">
         <v>1</v>
       </c>
     </row>
@@ -4116,24 +4168,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4156,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44627</v>
       </c>
@@ -4179,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44627</v>
       </c>
@@ -4202,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44627</v>
       </c>
@@ -4225,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44074</v>
       </c>
@@ -4249,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44074</v>
       </c>
@@ -4273,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44074</v>
       </c>
@@ -4297,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44074</v>
       </c>
@@ -4321,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44074</v>
       </c>
@@ -4345,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44074</v>
       </c>
@@ -4369,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44074</v>
       </c>
@@ -4393,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44105</v>
       </c>
@@ -4417,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44627</v>
       </c>
@@ -4440,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44104</v>
       </c>
@@ -4464,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44104</v>
       </c>
@@ -4488,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -4512,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44104</v>
       </c>
@@ -4536,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44104</v>
       </c>
@@ -4560,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44104</v>
       </c>
@@ -4584,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44104</v>
       </c>
@@ -4608,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44104</v>
       </c>
@@ -4632,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44104</v>
       </c>
@@ -4656,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44104</v>
       </c>
@@ -4680,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44104</v>
       </c>
@@ -4704,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44104</v>
       </c>
@@ -4728,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44104</v>
       </c>
@@ -4752,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44627</v>
       </c>
@@ -4775,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44628</v>
       </c>
@@ -4798,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44074</v>
       </c>
@@ -4822,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44074</v>
       </c>
@@ -4846,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44074</v>
       </c>
@@ -4870,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44074</v>
       </c>
@@ -4894,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44074</v>
       </c>
@@ -4918,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44074</v>
       </c>
@@ -4942,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44074</v>
       </c>
@@ -4966,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44074</v>
       </c>
@@ -4990,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44074</v>
       </c>
@@ -5014,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44074</v>
       </c>
@@ -5038,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44074</v>
       </c>
@@ -5062,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44105</v>
       </c>
@@ -5086,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44627</v>
       </c>
@@ -5109,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44627</v>
       </c>
@@ -5132,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44627</v>
       </c>
@@ -5155,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44627</v>
       </c>
@@ -5178,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44627</v>
       </c>
@@ -5201,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44627</v>
       </c>
@@ -5224,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44627</v>
       </c>
@@ -5247,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44627</v>
       </c>
@@ -5270,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44627</v>
       </c>
@@ -5293,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44627</v>
       </c>
@@ -5316,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44627</v>
       </c>
@@ -5339,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44627</v>
       </c>
@@ -5362,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44627</v>
       </c>
@@ -5385,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44627</v>
       </c>
@@ -5408,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44627</v>
       </c>
@@ -5431,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44627</v>
       </c>
@@ -5454,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>44627</v>
       </c>
@@ -5477,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44627</v>
       </c>
@@ -5500,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44627</v>
       </c>
@@ -5523,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44627</v>
       </c>
@@ -5546,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44627</v>
       </c>
@@ -5569,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44627</v>
       </c>
@@ -5592,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44627</v>
       </c>
@@ -5615,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44627</v>
       </c>
@@ -5638,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44627</v>
       </c>
@@ -5661,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44627</v>
       </c>
@@ -5684,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
@@ -5707,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44627</v>
       </c>
@@ -5730,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44627</v>
       </c>
@@ -5753,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44627</v>
       </c>
@@ -5776,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44627</v>
       </c>
@@ -5799,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44627</v>
       </c>
@@ -5822,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44627</v>
       </c>
@@ -5845,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44628</v>
       </c>
@@ -5868,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44628</v>
       </c>
@@ -5891,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44628</v>
       </c>
@@ -5914,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44628</v>
       </c>
@@ -5937,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44628</v>
       </c>
@@ -5960,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44628</v>
       </c>
@@ -5983,7 +6035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44628</v>
       </c>
@@ -6006,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44628</v>
       </c>
@@ -6029,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44628</v>
       </c>
@@ -6052,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44628</v>
       </c>
@@ -6075,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44628</v>
       </c>
@@ -6098,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44627</v>
       </c>
@@ -6121,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44627</v>
       </c>
@@ -6144,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44627</v>
       </c>
@@ -6167,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44627</v>
       </c>
@@ -6190,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44627</v>
       </c>
@@ -6213,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44627</v>
       </c>
@@ -6236,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44105</v>
       </c>
@@ -6260,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44627</v>
       </c>
@@ -6283,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44627</v>
       </c>
@@ -6306,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44105</v>
       </c>
@@ -6330,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44628</v>
       </c>
@@ -6353,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44627</v>
       </c>
@@ -6376,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44074</v>
       </c>
@@ -6400,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44628</v>
       </c>
@@ -6423,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44627</v>
       </c>
@@ -6446,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44627</v>
       </c>
@@ -6469,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44627</v>
       </c>
@@ -6492,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44627</v>
       </c>
@@ -6515,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44627</v>
       </c>
@@ -6538,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44627</v>
       </c>
@@ -6561,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44627</v>
       </c>
@@ -6584,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44627</v>
       </c>
@@ -6607,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44627</v>
       </c>
@@ -6630,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44627</v>
       </c>
@@ -6653,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44627</v>
       </c>
@@ -6676,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44627</v>
       </c>
@@ -6699,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44627</v>
       </c>
@@ -6722,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44627</v>
       </c>
@@ -6745,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44627</v>
       </c>
@@ -6768,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44627</v>
       </c>
@@ -6791,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44627</v>
       </c>
@@ -6814,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44627</v>
       </c>
@@ -6837,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44627</v>
       </c>
@@ -6860,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44627</v>
       </c>
@@ -6883,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44627</v>
       </c>
@@ -6906,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44627</v>
       </c>
@@ -6929,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44627</v>
       </c>
@@ -6952,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44627</v>
       </c>
@@ -6975,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44627</v>
       </c>
@@ -6998,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44627</v>
       </c>
@@ -7021,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44627</v>
       </c>
@@ -7044,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44627</v>
       </c>
@@ -7067,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44627</v>
       </c>
@@ -7090,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44627</v>
       </c>
@@ -7113,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44627</v>
       </c>
@@ -7136,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44627</v>
       </c>
@@ -7159,7 +7211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44627</v>
       </c>
@@ -7182,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44627</v>
       </c>
@@ -7205,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44627</v>
       </c>
@@ -7228,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44627</v>
       </c>
@@ -7251,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44627</v>
       </c>
@@ -7274,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44627</v>
       </c>
@@ -7297,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44627</v>
       </c>
@@ -7320,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44074</v>
       </c>
@@ -7344,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44627</v>
       </c>
@@ -7367,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44628</v>
       </c>
@@ -7390,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44655</v>
       </c>
@@ -7410,6 +7462,52 @@
         <v>100</v>
       </c>
       <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B142" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>52</v>
+      </c>
+      <c r="F142" s="17">
+        <v>100</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B143" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>52</v>
+      </c>
+      <c r="F143" s="17">
+        <v>100</v>
+      </c>
+      <c r="G143">
         <v>1</v>
       </c>
     </row>
@@ -7428,16 +7526,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -7454,7 +7552,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44116</v>
       </c>
@@ -7471,7 +7569,7 @@
         <v>44627.724999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44119</v>
       </c>
@@ -7488,7 +7586,7 @@
         <v>44627.724999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44551</v>
       </c>
@@ -7518,18 +7616,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -7567,7 +7665,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -7606,7 +7704,7 @@
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -7645,7 +7743,7 @@
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -7684,7 +7782,7 @@
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -7723,7 +7821,7 @@
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -7769,24 +7867,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E0FC90-FDA7-4CD4-B785-694A9C9D6F8B}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7812,7 +7910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44631</v>
       </c>
@@ -7838,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44631</v>
       </c>
@@ -7864,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44631</v>
       </c>
@@ -7890,7 +7988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44631</v>
       </c>
@@ -7916,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44631</v>
       </c>
@@ -7942,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44631</v>
       </c>
@@ -7968,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44631</v>
       </c>
@@ -7994,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44631</v>
       </c>
@@ -8020,7 +8118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44631</v>
       </c>
@@ -8046,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44631</v>
       </c>
@@ -8072,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44631</v>
       </c>
@@ -8098,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44631</v>
       </c>
@@ -8124,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44631</v>
       </c>
@@ -8150,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44631</v>
       </c>
@@ -8176,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44631</v>
       </c>
@@ -8202,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44631</v>
       </c>
@@ -8228,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44631</v>
       </c>
@@ -8254,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44631</v>
       </c>
@@ -8280,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44631</v>
       </c>
@@ -8306,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44631</v>
       </c>
@@ -8332,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44631</v>
       </c>
@@ -8358,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44631</v>
       </c>
@@ -8384,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44631</v>
       </c>
@@ -8410,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44631</v>
       </c>
@@ -8436,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44631</v>
       </c>
@@ -8462,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44631</v>
       </c>
@@ -8488,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44631</v>
       </c>
@@ -8514,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44631</v>
       </c>
@@ -8540,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44631</v>
       </c>
@@ -8566,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44631</v>
       </c>
@@ -8592,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44631</v>
       </c>
@@ -8618,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44631</v>
       </c>
@@ -8644,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44631</v>
       </c>
@@ -8670,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44655</v>
       </c>
@@ -8693,6 +8791,58 @@
         <v>151</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
@@ -8703,5 +8853,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4F435-1C9E-46A4-AAB1-CD7C39A2BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5DEE23-9525-499B-86DA-EAE8651B4A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetSector" sheetId="1" r:id="rId1"/>
@@ -327,9 +327,6 @@
     <t>Deposit</t>
   </si>
   <si>
-    <t>Withdraw</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -520,6 +517,9 @@
   </si>
   <si>
     <t>WBD</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
   </si>
 </sst>
 </file>
@@ -2646,7 +2646,7 @@
         <v>44627</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -3612,7 +3612,7 @@
         <v>44628</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
         <v>49</v>
@@ -3636,7 +3636,7 @@
         <v>44628</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
         <v>49</v>
@@ -3659,7 +3659,7 @@
         <v>44628</v>
       </c>
       <c r="B98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
         <v>49</v>
@@ -3682,7 +3682,7 @@
         <v>44628</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>49</v>
@@ -3705,7 +3705,7 @@
         <v>44628</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
         <v>49</v>
@@ -3728,7 +3728,7 @@
         <v>44628</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
         <v>49</v>
@@ -3751,7 +3751,7 @@
         <v>44628</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
         <v>49</v>
@@ -3760,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F102" s="7">
         <v>0.32</v>
@@ -3774,7 +3774,7 @@
         <v>44628</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>49</v>
@@ -3783,7 +3783,7 @@
         <v>7</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F103" s="7">
         <v>100</v>
@@ -3797,7 +3797,7 @@
         <v>44628</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
         <v>49</v>
@@ -3806,7 +3806,7 @@
         <v>7</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F104" s="7">
         <v>100</v>
@@ -3820,7 +3820,7 @@
         <v>44628</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
         <v>49</v>
@@ -3843,7 +3843,7 @@
         <v>44628</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
         <v>49</v>
@@ -3866,7 +3866,7 @@
         <v>44628</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C107" t="s">
         <v>49</v>
@@ -3889,7 +3889,7 @@
         <v>44628</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C108" t="s">
         <v>49</v>
@@ -3912,7 +3912,7 @@
         <v>44628</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
         <v>49</v>
@@ -3935,7 +3935,7 @@
         <v>44628</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
         <v>49</v>
@@ -3958,7 +3958,7 @@
         <v>44628</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
         <v>49</v>
@@ -3981,7 +3981,7 @@
         <v>44628</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
         <v>49</v>
@@ -4004,7 +4004,7 @@
         <v>44628</v>
       </c>
       <c r="B113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
         <v>49</v>
@@ -4027,7 +4027,7 @@
         <v>44628</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
         <v>49</v>
@@ -4050,7 +4050,7 @@
         <v>44628</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
         <v>49</v>
@@ -4073,7 +4073,7 @@
         <v>44628</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" t="s">
         <v>49</v>
@@ -4096,7 +4096,7 @@
         <v>44655</v>
       </c>
       <c r="B117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s">
         <v>50</v>
@@ -4119,7 +4119,7 @@
         <v>44783</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C118" t="s">
         <v>50</v>
@@ -4142,7 +4142,7 @@
         <v>44783</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s">
         <v>50</v>
@@ -4832,7 +4832,7 @@
         <v>44628</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -5166,7 +5166,7 @@
         <v>44627</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -5902,7 +5902,7 @@
         <v>44628</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
         <v>49</v>
@@ -5925,7 +5925,7 @@
         <v>44628</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
         <v>49</v>
@@ -5948,7 +5948,7 @@
         <v>44628</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
         <v>49</v>
@@ -5971,7 +5971,7 @@
         <v>44628</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
         <v>49</v>
@@ -5994,7 +5994,7 @@
         <v>44628</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C78" t="s">
         <v>49</v>
@@ -6017,7 +6017,7 @@
         <v>44628</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
         <v>49</v>
@@ -6040,7 +6040,7 @@
         <v>44628</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
         <v>49</v>
@@ -6063,7 +6063,7 @@
         <v>44628</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
         <v>49</v>
@@ -6086,7 +6086,7 @@
         <v>44628</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
         <v>49</v>
@@ -6109,16 +6109,16 @@
         <v>44628</v>
       </c>
       <c r="B83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F83" s="7">
         <v>2.17</v>
@@ -6132,7 +6132,7 @@
         <v>44628</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
         <v>49</v>
@@ -6387,7 +6387,7 @@
         <v>44628</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
         <v>49</v>
@@ -6457,7 +6457,7 @@
         <v>44628</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
         <v>49</v>
@@ -7424,7 +7424,7 @@
         <v>44628</v>
       </c>
       <c r="B140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C140" t="s">
         <v>49</v>
@@ -7447,7 +7447,7 @@
         <v>44655</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C141" t="s">
         <v>50</v>
@@ -7470,7 +7470,7 @@
         <v>44783</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C142" t="s">
         <v>50</v>
@@ -7493,7 +7493,7 @@
         <v>44783</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C143" t="s">
         <v>50</v>
@@ -7522,8 +7522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24FBA74-073E-46F2-A677-303D1306A835}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7540,7 +7540,7 @@
         <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>93</v>
@@ -7549,7 +7549,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -7591,7 +7591,7 @@
         <v>44551</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="C4">
         <v>-7000</v>
@@ -7629,7 +7629,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -7638,36 +7638,36 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -7677,19 +7677,19 @@
         <v>VCLT-USD</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7716,19 +7716,19 @@
         <v>TLT-USD</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
         <v>111</v>
       </c>
-      <c r="G3" t="s">
-        <v>112</v>
-      </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -7755,19 +7755,19 @@
         <v>XLF-USD</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
         <v>111</v>
       </c>
-      <c r="G4" t="s">
-        <v>112</v>
-      </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -7794,19 +7794,19 @@
         <v>PSP-USD</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" t="s">
-        <v>112</v>
-      </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -7833,19 +7833,19 @@
         <v>ESGV-USD</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7869,7 +7869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E0FC90-FDA7-4CD4-B785-694A9C9D6F8B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -7895,16 +7895,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>135</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -7924,13 +7924,13 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7976,13 +7976,13 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -8002,13 +8002,13 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -8019,7 +8019,7 @@
         <v>44631</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -8028,13 +8028,13 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -8051,16 +8051,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -8080,13 +8080,13 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -8103,16 +8103,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -8129,16 +8129,16 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -8155,16 +8155,16 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -8184,13 +8184,13 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -8210,13 +8210,13 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -8236,13 +8236,13 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -8262,13 +8262,13 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -8288,13 +8288,13 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -8311,16 +8311,16 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -8340,13 +8340,13 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -8363,16 +8363,16 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -8389,16 +8389,16 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -8415,16 +8415,16 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -8435,7 +8435,7 @@
         <v>44631</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -8444,13 +8444,13 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -8461,7 +8461,7 @@
         <v>44631</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -8470,13 +8470,13 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -8496,13 +8496,13 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -8522,13 +8522,13 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -8545,16 +8545,16 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -8571,16 +8571,16 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
         <v>138</v>
-      </c>
-      <c r="E27" t="s">
-        <v>139</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -8597,16 +8597,16 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
         <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>139</v>
       </c>
       <c r="F28" t="s">
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -8617,22 +8617,22 @@
         <v>44631</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
         <v>138</v>
-      </c>
-      <c r="E29" t="s">
-        <v>139</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -8649,16 +8649,16 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
         <v>138</v>
-      </c>
-      <c r="E30" t="s">
-        <v>139</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -8675,16 +8675,16 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -8704,13 +8704,13 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -8721,7 +8721,7 @@
         <v>44631</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -8730,13 +8730,13 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -8747,7 +8747,7 @@
         <v>44631</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -8756,13 +8756,13 @@
         <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -8773,22 +8773,22 @@
         <v>44655</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -8799,22 +8799,22 @@
         <v>44783</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -8825,22 +8825,22 @@
         <v>44783</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H37">
         <v>1</v>

--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5DEE23-9525-499B-86DA-EAE8651B4A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE834B4E-1FBB-4535-96CA-E32E19474EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetSector" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="FundTransferHistory" sheetId="3" r:id="rId3"/>
     <sheet name="STWatchlist" sheetId="4" r:id="rId4"/>
     <sheet name="AssetChar" sheetId="5" r:id="rId5"/>
+    <sheet name="FundTransferHistory2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AssetChar!$A$1:$K$1</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="167">
   <si>
     <t>Datadate</t>
   </si>
@@ -520,12 +521,36 @@
   </si>
   <si>
     <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>LIRA Ke</t>
+  </si>
+  <si>
+    <t>TFSA Tong</t>
+  </si>
+  <si>
+    <t>Account Value</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Intrim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -975,7 +1000,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1018,8 +1043,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,8 +1076,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1079,6 +1106,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -7522,8 +7550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24FBA74-073E-46F2-A677-303D1306A835}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8855,4 +8883,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D8F81-04A5-4D1F-90EE-02C5BAFD5B03}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G3:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="18">
+        <v>139895.32999999999</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>44784.838888888888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="18">
+        <v>134823</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44784.838888888888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="18">
+        <v>50000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>44784.838888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="18">
+        <v>15000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>44784.838888888888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="18">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>44784.838888888888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="18">
+        <v>85406</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>44784.838888888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{DB11C3E3-B056-422F-AAFC-F6CF592652EC}">
+      <formula1>"LIRA Ke, RRSP Ke, RRSP Tong, TFSA Ke, TFSA Tong"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE834B4E-1FBB-4535-96CA-E32E19474EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B7050-B292-4C36-99F9-9CD8641B3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="12220" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="18240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetSector" sheetId="1" r:id="rId1"/>
     <sheet name="AssetCountry" sheetId="2" r:id="rId2"/>
-    <sheet name="FundTransferHistory" sheetId="3" r:id="rId3"/>
-    <sheet name="STWatchlist" sheetId="4" r:id="rId4"/>
-    <sheet name="AssetChar" sheetId="5" r:id="rId5"/>
-    <sheet name="FundTransferHistory2" sheetId="6" r:id="rId6"/>
+    <sheet name="STWatchlist" sheetId="4" r:id="rId3"/>
+    <sheet name="AssetChar" sheetId="5" r:id="rId4"/>
+    <sheet name="MyBrokerAccounts" sheetId="7" r:id="rId5"/>
+    <sheet name="FundTransferHistory" sheetId="3" r:id="rId6"/>
+    <sheet name="FundTransferHistoryOA" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AssetChar!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AssetChar!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AssetCountry!$A$1:$G$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AssetSector!$A$1:$G$116</definedName>
   </definedNames>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="185">
   <si>
     <t>Datadate</t>
   </si>
@@ -523,15 +524,6 @@
     <t>Withdrawal</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>LIRA Ke</t>
-  </si>
-  <si>
-    <t>TFSA Tong</t>
-  </si>
-  <si>
     <t>Account Value</t>
   </si>
   <si>
@@ -542,6 +534,69 @@
   </si>
   <si>
     <t>Intrim</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>U1989090</t>
+  </si>
+  <si>
+    <t>U10048362</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Sort Order</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>59416078</t>
+  </si>
+  <si>
+    <t>67130182</t>
+  </si>
+  <si>
+    <t>CIBC</t>
+  </si>
+  <si>
+    <t>IB Canada</t>
+  </si>
+  <si>
+    <t>TFSA</t>
+  </si>
+  <si>
+    <t>RRSP</t>
+  </si>
+  <si>
+    <t>TFSA Saving</t>
+  </si>
+  <si>
+    <t>LIRA</t>
+  </si>
+  <si>
+    <t>60513191</t>
+  </si>
+  <si>
+    <t>67130181</t>
+  </si>
+  <si>
+    <t>Tong</t>
+  </si>
+  <si>
+    <t>Alias</t>
   </si>
 </sst>
 </file>
@@ -551,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +744,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1045,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,6 +1138,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1439,18 +1501,18 @@
       <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44074</v>
       </c>
@@ -1496,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44074</v>
       </c>
@@ -1519,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44074</v>
       </c>
@@ -1542,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44074</v>
       </c>
@@ -1565,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44074</v>
       </c>
@@ -1588,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44074</v>
       </c>
@@ -1611,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44074</v>
       </c>
@@ -1634,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44074</v>
       </c>
@@ -1657,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44074</v>
       </c>
@@ -1680,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44074</v>
       </c>
@@ -1703,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44074</v>
       </c>
@@ -1726,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44074</v>
       </c>
@@ -1749,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44074</v>
       </c>
@@ -1772,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44074</v>
       </c>
@@ -1795,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44074</v>
       </c>
@@ -1818,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44074</v>
       </c>
@@ -1841,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44074</v>
       </c>
@@ -1864,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44074</v>
       </c>
@@ -1887,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44074</v>
       </c>
@@ -1910,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44074</v>
       </c>
@@ -1933,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44074</v>
       </c>
@@ -1956,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -1979,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44104</v>
       </c>
@@ -2002,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44104</v>
       </c>
@@ -2025,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44104</v>
       </c>
@@ -2048,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44104</v>
       </c>
@@ -2071,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44104</v>
       </c>
@@ -2094,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44104</v>
       </c>
@@ -2117,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44104</v>
       </c>
@@ -2140,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -2163,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44104</v>
       </c>
@@ -2186,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44104</v>
       </c>
@@ -2209,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44104</v>
       </c>
@@ -2232,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44104</v>
       </c>
@@ -2255,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44074</v>
       </c>
@@ -2278,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44074</v>
       </c>
@@ -2301,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44074</v>
       </c>
@@ -2324,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44074</v>
       </c>
@@ -2347,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44074</v>
       </c>
@@ -2370,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44074</v>
       </c>
@@ -2393,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44074</v>
       </c>
@@ -2416,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44074</v>
       </c>
@@ -2439,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44074</v>
       </c>
@@ -2462,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44105</v>
       </c>
@@ -2485,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44105</v>
       </c>
@@ -2508,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44105</v>
       </c>
@@ -2531,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44105</v>
       </c>
@@ -2554,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44627</v>
       </c>
@@ -2577,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44627</v>
       </c>
@@ -2600,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44627</v>
       </c>
@@ -2623,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44627</v>
       </c>
@@ -2646,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44627</v>
       </c>
@@ -2669,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44627</v>
       </c>
@@ -2692,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44627</v>
       </c>
@@ -2715,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44627</v>
       </c>
@@ -2738,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44627</v>
       </c>
@@ -2761,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44627</v>
       </c>
@@ -2784,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44627</v>
       </c>
@@ -2807,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44627</v>
       </c>
@@ -2830,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44627</v>
       </c>
@@ -2853,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44627</v>
       </c>
@@ -2876,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44627</v>
       </c>
@@ -2899,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44627</v>
       </c>
@@ -2922,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44627</v>
       </c>
@@ -2945,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44627</v>
       </c>
@@ -2968,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
@@ -2991,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44627</v>
       </c>
@@ -3014,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44627</v>
       </c>
@@ -3037,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44627</v>
       </c>
@@ -3060,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44627</v>
       </c>
@@ -3083,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44627</v>
       </c>
@@ -3106,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44627</v>
       </c>
@@ -3129,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44627</v>
       </c>
@@ -3152,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44627</v>
       </c>
@@ -3175,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44627</v>
       </c>
@@ -3198,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44627</v>
       </c>
@@ -3221,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44627</v>
       </c>
@@ -3244,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44627</v>
       </c>
@@ -3267,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44627</v>
       </c>
@@ -3290,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44627</v>
       </c>
@@ -3313,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44627</v>
       </c>
@@ -3336,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44627</v>
       </c>
@@ -3359,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44627</v>
       </c>
@@ -3382,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44627</v>
       </c>
@@ -3405,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44627</v>
       </c>
@@ -3428,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44627</v>
       </c>
@@ -3451,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44627</v>
       </c>
@@ -3474,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44627</v>
       </c>
@@ -3497,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44627</v>
       </c>
@@ -3520,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44627</v>
       </c>
@@ -3543,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44627</v>
       </c>
@@ -3566,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44627</v>
       </c>
@@ -3589,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44627</v>
       </c>
@@ -3612,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44627</v>
       </c>
@@ -3635,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44628</v>
       </c>
@@ -3659,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44628</v>
       </c>
@@ -3682,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44628</v>
       </c>
@@ -3705,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44628</v>
       </c>
@@ -3728,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44628</v>
       </c>
@@ -3751,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44628</v>
       </c>
@@ -3774,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44628</v>
       </c>
@@ -3797,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44628</v>
       </c>
@@ -3820,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44628</v>
       </c>
@@ -3843,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44628</v>
       </c>
@@ -3866,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44628</v>
       </c>
@@ -3889,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44628</v>
       </c>
@@ -3912,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44628</v>
       </c>
@@ -3935,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44628</v>
       </c>
@@ -3958,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44628</v>
       </c>
@@ -3981,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44628</v>
       </c>
@@ -4004,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44628</v>
       </c>
@@ -4027,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44628</v>
       </c>
@@ -4050,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44628</v>
       </c>
@@ -4073,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44628</v>
       </c>
@@ -4096,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44628</v>
       </c>
@@ -4119,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44655</v>
       </c>
@@ -4142,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44783</v>
       </c>
@@ -4165,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44783</v>
       </c>
@@ -4202,18 +4264,18 @@
       <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4236,7 +4298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44627</v>
       </c>
@@ -4259,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44627</v>
       </c>
@@ -4282,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44627</v>
       </c>
@@ -4305,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44074</v>
       </c>
@@ -4329,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44074</v>
       </c>
@@ -4353,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44074</v>
       </c>
@@ -4377,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44074</v>
       </c>
@@ -4401,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44074</v>
       </c>
@@ -4425,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44074</v>
       </c>
@@ -4449,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44074</v>
       </c>
@@ -4473,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44105</v>
       </c>
@@ -4497,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44627</v>
       </c>
@@ -4520,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44104</v>
       </c>
@@ -4544,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44104</v>
       </c>
@@ -4568,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -4592,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44104</v>
       </c>
@@ -4616,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44104</v>
       </c>
@@ -4640,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44104</v>
       </c>
@@ -4664,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44104</v>
       </c>
@@ -4688,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44104</v>
       </c>
@@ -4712,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44104</v>
       </c>
@@ -4736,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44104</v>
       </c>
@@ -4760,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44104</v>
       </c>
@@ -4784,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44104</v>
       </c>
@@ -4808,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44104</v>
       </c>
@@ -4832,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44627</v>
       </c>
@@ -4855,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44628</v>
       </c>
@@ -4878,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44074</v>
       </c>
@@ -4902,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44074</v>
       </c>
@@ -4926,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44074</v>
       </c>
@@ -4950,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44074</v>
       </c>
@@ -4974,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44074</v>
       </c>
@@ -4998,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44074</v>
       </c>
@@ -5022,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44074</v>
       </c>
@@ -5046,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44074</v>
       </c>
@@ -5070,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44074</v>
       </c>
@@ -5094,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44074</v>
       </c>
@@ -5118,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44074</v>
       </c>
@@ -5142,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44105</v>
       </c>
@@ -5166,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44627</v>
       </c>
@@ -5189,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44627</v>
       </c>
@@ -5212,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44627</v>
       </c>
@@ -5235,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44627</v>
       </c>
@@ -5258,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44627</v>
       </c>
@@ -5281,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44627</v>
       </c>
@@ -5304,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44627</v>
       </c>
@@ -5327,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44627</v>
       </c>
@@ -5350,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44627</v>
       </c>
@@ -5373,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44627</v>
       </c>
@@ -5396,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44627</v>
       </c>
@@ -5419,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44627</v>
       </c>
@@ -5442,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44627</v>
       </c>
@@ -5465,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44627</v>
       </c>
@@ -5488,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44627</v>
       </c>
@@ -5511,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44627</v>
       </c>
@@ -5534,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44627</v>
       </c>
@@ -5557,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44627</v>
       </c>
@@ -5580,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44627</v>
       </c>
@@ -5603,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44627</v>
       </c>
@@ -5626,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44627</v>
       </c>
@@ -5649,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44627</v>
       </c>
@@ -5672,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44627</v>
       </c>
@@ -5695,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44627</v>
       </c>
@@ -5718,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44627</v>
       </c>
@@ -5741,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44627</v>
       </c>
@@ -5764,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44627</v>
       </c>
@@ -5787,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44627</v>
       </c>
@@ -5810,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44627</v>
       </c>
@@ -5833,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44627</v>
       </c>
@@ -5856,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44627</v>
       </c>
@@ -5879,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44627</v>
       </c>
@@ -5902,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44627</v>
       </c>
@@ -5925,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44628</v>
       </c>
@@ -5948,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44628</v>
       </c>
@@ -5971,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44628</v>
       </c>
@@ -5994,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44628</v>
       </c>
@@ -6017,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44628</v>
       </c>
@@ -6040,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44628</v>
       </c>
@@ -6063,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44628</v>
       </c>
@@ -6086,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44628</v>
       </c>
@@ -6109,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44628</v>
       </c>
@@ -6132,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44628</v>
       </c>
@@ -6155,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44628</v>
       </c>
@@ -6178,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44627</v>
       </c>
@@ -6201,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44627</v>
       </c>
@@ -6224,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44627</v>
       </c>
@@ -6247,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44627</v>
       </c>
@@ -6270,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44627</v>
       </c>
@@ -6293,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44627</v>
       </c>
@@ -6316,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44105</v>
       </c>
@@ -6340,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44627</v>
       </c>
@@ -6363,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44627</v>
       </c>
@@ -6386,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44105</v>
       </c>
@@ -6410,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44628</v>
       </c>
@@ -6433,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44627</v>
       </c>
@@ -6456,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44074</v>
       </c>
@@ -6480,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44628</v>
       </c>
@@ -6503,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44627</v>
       </c>
@@ -6526,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44627</v>
       </c>
@@ -6549,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44627</v>
       </c>
@@ -6572,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44627</v>
       </c>
@@ -6595,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44627</v>
       </c>
@@ -6618,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44627</v>
       </c>
@@ -6641,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44627</v>
       </c>
@@ -6664,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44627</v>
       </c>
@@ -6687,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44627</v>
       </c>
@@ -6710,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44627</v>
       </c>
@@ -6733,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44627</v>
       </c>
@@ -6756,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44627</v>
       </c>
@@ -6779,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44627</v>
       </c>
@@ -6802,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44627</v>
       </c>
@@ -6825,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44627</v>
       </c>
@@ -6848,7 +6910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44627</v>
       </c>
@@ -6871,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44627</v>
       </c>
@@ -6894,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44627</v>
       </c>
@@ -6917,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44627</v>
       </c>
@@ -6940,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44627</v>
       </c>
@@ -6963,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44627</v>
       </c>
@@ -6986,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44627</v>
       </c>
@@ -7009,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44627</v>
       </c>
@@ -7032,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44627</v>
       </c>
@@ -7055,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44627</v>
       </c>
@@ -7078,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44627</v>
       </c>
@@ -7101,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44627</v>
       </c>
@@ -7124,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44627</v>
       </c>
@@ -7147,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44627</v>
       </c>
@@ -7170,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44627</v>
       </c>
@@ -7193,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44627</v>
       </c>
@@ -7216,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44627</v>
       </c>
@@ -7239,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44627</v>
       </c>
@@ -7262,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44627</v>
       </c>
@@ -7285,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44627</v>
       </c>
@@ -7308,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44627</v>
       </c>
@@ -7331,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44627</v>
       </c>
@@ -7354,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44627</v>
       </c>
@@ -7377,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44627</v>
       </c>
@@ -7400,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44074</v>
       </c>
@@ -7424,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44627</v>
       </c>
@@ -7447,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44628</v>
       </c>
@@ -7470,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44655</v>
       </c>
@@ -7493,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44783</v>
       </c>
@@ -7516,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44783</v>
       </c>
@@ -7547,96 +7609,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24FBA74-073E-46F2-A677-303D1306A835}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>44116</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
-        <v>44627.724999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>44627.724999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44551</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4">
-        <v>-7000</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>44627.724999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940DB676-0691-4D6D-967D-ED592843676B}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -7644,18 +7616,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -7693,7 +7665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -7732,7 +7704,7 @@
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -7771,7 +7743,7 @@
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -7810,7 +7782,7 @@
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -7849,7 +7821,7 @@
         <v>44628.725694444445</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -7893,26 +7865,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E0FC90-FDA7-4CD4-B785-694A9C9D6F8B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7938,7 +7910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44631</v>
       </c>
@@ -7964,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44631</v>
       </c>
@@ -7990,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44631</v>
       </c>
@@ -8016,7 +7988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44631</v>
       </c>
@@ -8042,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44631</v>
       </c>
@@ -8068,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44631</v>
       </c>
@@ -8094,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44631</v>
       </c>
@@ -8120,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44631</v>
       </c>
@@ -8146,7 +8118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44631</v>
       </c>
@@ -8172,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44631</v>
       </c>
@@ -8198,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44631</v>
       </c>
@@ -8224,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44631</v>
       </c>
@@ -8250,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44631</v>
       </c>
@@ -8276,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44631</v>
       </c>
@@ -8302,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44631</v>
       </c>
@@ -8328,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44631</v>
       </c>
@@ -8354,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44631</v>
       </c>
@@ -8380,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44631</v>
       </c>
@@ -8406,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44631</v>
       </c>
@@ -8432,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44631</v>
       </c>
@@ -8458,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44631</v>
       </c>
@@ -8484,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44631</v>
       </c>
@@ -8510,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44631</v>
       </c>
@@ -8536,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44631</v>
       </c>
@@ -8562,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44631</v>
       </c>
@@ -8588,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44631</v>
       </c>
@@ -8614,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44631</v>
       </c>
@@ -8640,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44631</v>
       </c>
@@ -8666,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44631</v>
       </c>
@@ -8692,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44631</v>
       </c>
@@ -8718,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44631</v>
       </c>
@@ -8744,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44631</v>
       </c>
@@ -8770,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44631</v>
       </c>
@@ -8796,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44655</v>
       </c>
@@ -8822,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44783</v>
       </c>
@@ -8848,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44783</v>
       </c>
@@ -8885,37 +8857,393 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE640F6-67C2-41C5-A6DC-CD9104FE1D7C}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="str">
+        <f>E2&amp;" "&amp;C2</f>
+        <v>TFSA Ke</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44013</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B7" si="0">E3&amp;" "&amp;C3</f>
+        <v>RRSP Ke</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44752</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>LIRA Ke</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44621</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>TFSA Saving Ke</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44713</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>TFSA Tong</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44788</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>TFSA Saving Tong</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44713</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D8F81-04A5-4D1F-90EE-02C5BAFD5B03}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24FBA74-073E-46F2-A677-303D1306A835}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G3:G4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>95</v>
       </c>
       <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>44627.724999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44627.724999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>-7000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44627.724999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>20000</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44793.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44794.923611111109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D8F81-04A5-4D1F-90EE-02C5BAFD5B03}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>93</v>
@@ -8927,18 +9255,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44637</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E2" s="18">
         <v>139895.32999999999</v>
@@ -8950,41 +9278,41 @@
         <v>44784.838888888888</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44784</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E3" s="18">
         <v>134823</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
         <v>44784.838888888888</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44586</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E4" s="18">
         <v>50000</v>
@@ -8996,18 +9324,18 @@
         <v>44784.838888888888</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44616</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E5" s="18">
         <v>15000</v>
@@ -9019,18 +9347,18 @@
         <v>44784.838888888888</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44742</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E6" s="18">
         <v>20000</v>
@@ -9042,35 +9370,227 @@
         <v>44784.838888888888</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44784</v>
       </c>
       <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E7" s="18">
         <v>85406</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <v>44784.838888888888</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8">
+        <v>86291.04</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>44785.741157407407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9">
+        <v>135929.89000000001</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>44785.743425925924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10">
+        <v>137980.89000000001</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>44788.905960648146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11">
+        <v>90309.41</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>44788.908159722225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>90235.98</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>44789.871087962965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13">
+        <v>137506.89000000001</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>44789.872314814813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14">
+        <v>89877.63</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>44791.728495370371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15">
+        <v>136786.14000000001</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>44791.729456018518</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{DB11C3E3-B056-422F-AAFC-F6CF592652EC}">
-      <formula1>"LIRA Ke, RRSP Ke, RRSP Tong, TFSA Ke, TFSA Tong"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB11C3E3-B056-422F-AAFC-F6CF592652EC}">
+          <x14:formula1>
+            <xm:f>MyBrokerAccounts!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/updater/source.xlsx
+++ b/updater/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MyBroKe\updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B7050-B292-4C36-99F9-9CD8641B3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F19522-0608-44A9-8757-D342AAF15057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="18240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="18240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetSector" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="187">
   <si>
     <t>Datadate</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>Alias</t>
+  </si>
+  <si>
+    <t>59868940</t>
+  </si>
+  <si>
+    <t>RRSP Tong</t>
   </si>
 </sst>
 </file>
@@ -1106,37 +1112,21 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -3710,10 +3700,10 @@
       <c r="D96" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="3">
         <f>69.56+8.58</f>
         <v>78.14</v>
       </c>
@@ -3734,10 +3724,10 @@
       <c r="D97" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="3">
         <v>9.69</v>
       </c>
       <c r="G97">
@@ -3757,10 +3747,10 @@
       <c r="D98" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="3">
         <v>8.14</v>
       </c>
       <c r="G98">
@@ -3780,10 +3770,10 @@
       <c r="D99" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="3">
         <v>3.63</v>
       </c>
       <c r="G99">
@@ -3803,10 +3793,10 @@
       <c r="D100" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="3">
         <v>0.68</v>
       </c>
       <c r="G100">
@@ -3826,10 +3816,10 @@
       <c r="D101" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="3">
         <v>0.15</v>
       </c>
       <c r="G101">
@@ -3849,10 +3839,10 @@
       <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" t="s">
         <v>120</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="3">
         <v>0.32</v>
       </c>
       <c r="G102">
@@ -3872,10 +3862,10 @@
       <c r="D103" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" t="s">
         <v>127</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="3">
         <v>100</v>
       </c>
       <c r="G103">
@@ -3895,10 +3885,10 @@
       <c r="D104" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" t="s">
         <v>126</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="3">
         <v>100</v>
       </c>
       <c r="G104">
@@ -3918,10 +3908,10 @@
       <c r="D105" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="3">
         <v>100</v>
       </c>
       <c r="G105">
@@ -4217,7 +4207,7 @@
       <c r="D118" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" t="s">
         <v>12</v>
       </c>
       <c r="F118">
@@ -4240,7 +4230,7 @@
       <c r="D119" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" t="s">
         <v>8</v>
       </c>
       <c r="F119">
@@ -4311,10 +4301,10 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>100</v>
       </c>
       <c r="G2">
@@ -4334,10 +4324,10 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>100</v>
       </c>
       <c r="G3">
@@ -4357,10 +4347,10 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>100</v>
       </c>
       <c r="G4">
@@ -4381,10 +4371,10 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>5.2</v>
       </c>
       <c r="G5">
@@ -4405,10 +4395,10 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>1.5</v>
       </c>
       <c r="G6">
@@ -4429,10 +4419,10 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
       <c r="G7">
@@ -4453,10 +4443,10 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>41.5</v>
       </c>
       <c r="G8">
@@ -4477,10 +4467,10 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>0.1</v>
       </c>
       <c r="G9">
@@ -4501,10 +4491,10 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>13.3</v>
       </c>
       <c r="G10">
@@ -4525,10 +4515,10 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>36.4</v>
       </c>
       <c r="G11">
@@ -4549,10 +4539,10 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12">
@@ -4572,10 +4562,10 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>100</v>
       </c>
       <c r="G13">
@@ -4596,10 +4586,10 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>4.5</v>
       </c>
       <c r="G14">
@@ -4620,10 +4610,10 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>41.44</v>
       </c>
       <c r="G15">
@@ -4644,10 +4634,10 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>8.15</v>
       </c>
       <c r="G16">
@@ -4668,10 +4658,10 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>1.22</v>
       </c>
       <c r="G17">
@@ -4692,10 +4682,10 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>1.7</v>
       </c>
       <c r="G18">
@@ -4716,10 +4706,10 @@
       <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>1.61</v>
       </c>
       <c r="G19">
@@ -4740,10 +4730,10 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>5.75</v>
       </c>
       <c r="G20">
@@ -4764,10 +4754,10 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>3</v>
       </c>
       <c r="G21">
@@ -4788,10 +4778,10 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>2.75</v>
       </c>
       <c r="G22">
@@ -4812,10 +4802,10 @@
       <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>3.51</v>
       </c>
       <c r="G23">
@@ -4836,10 +4826,10 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>11.97</v>
       </c>
       <c r="G24">
@@ -4860,10 +4850,10 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="3">
         <v>12.64</v>
       </c>
       <c r="G25">
@@ -4884,10 +4874,10 @@
       <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="3">
         <v>1.74</v>
       </c>
       <c r="G26">
@@ -4907,10 +4897,10 @@
       <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27">
@@ -4930,10 +4920,10 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="3">
         <v>100</v>
       </c>
       <c r="G28">
@@ -4954,10 +4944,10 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="3">
         <v>9</v>
       </c>
       <c r="G29">
@@ -4978,10 +4968,10 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="3">
         <v>8.6999999999999993</v>
       </c>
       <c r="G30">
@@ -5002,10 +4992,10 @@
       <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="3">
         <v>2.7</v>
       </c>
       <c r="G31">
@@ -5026,10 +5016,10 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="3">
         <v>2</v>
       </c>
       <c r="G32">
@@ -5050,10 +5040,10 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="3">
         <v>0.9</v>
       </c>
       <c r="G33">
@@ -5074,10 +5064,10 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="3">
         <v>4</v>
       </c>
       <c r="G34">
@@ -5098,10 +5088,10 @@
       <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="3">
         <v>0.6</v>
       </c>
       <c r="G35">
@@ -5122,10 +5112,10 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="3">
         <v>5.9</v>
       </c>
       <c r="G36">
@@ -5146,10 +5136,10 @@
       <c r="D37" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="3">
         <v>4.7</v>
       </c>
       <c r="G37">
@@ -5170,10 +5160,10 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="3">
         <v>4.5</v>
       </c>
       <c r="G38">
@@ -5194,10 +5184,10 @@
       <c r="D39" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="3">
         <v>57.1</v>
       </c>
       <c r="G39">
@@ -5218,10 +5208,10 @@
       <c r="D40" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>100</v>
       </c>
       <c r="G40">
@@ -5241,10 +5231,10 @@
       <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41">
@@ -5264,10 +5254,10 @@
       <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="3">
         <v>100</v>
       </c>
       <c r="G42">
@@ -5287,10 +5277,10 @@
       <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="4">
         <v>1.85</v>
       </c>
       <c r="G43">
@@ -5310,10 +5300,10 @@
       <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="4">
         <v>2.1</v>
       </c>
       <c r="G44">
@@ -5333,10 +5323,10 @@
       <c r="D45" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="4">
         <v>7.67</v>
       </c>
       <c r="G45">
@@ -5356,10 +5346,10 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="4">
         <v>6.84</v>
       </c>
       <c r="G46">
@@ -5379,10 +5369,10 @@
       <c r="D47" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="4">
         <v>14.38</v>
       </c>
       <c r="G47">
@@ -5402,10 +5392,10 @@
       <c r="D48" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="4">
         <v>3.58</v>
       </c>
       <c r="G48">
@@ -5425,10 +5415,10 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="4">
         <v>2.06</v>
       </c>
       <c r="G49">
@@ -5448,10 +5438,10 @@
       <c r="D50" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="4">
         <v>1.65</v>
       </c>
       <c r="G50">
@@ -5471,10 +5461,10 @@
       <c r="D51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="4">
         <v>6.34</v>
       </c>
       <c r="G51">
@@ -5494,10 +5484,10 @@
       <c r="D52" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="4">
         <v>5.62</v>
       </c>
       <c r="G52">
@@ -5517,10 +5507,10 @@
       <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="4">
         <v>5.55</v>
       </c>
       <c r="G53">
@@ -5540,10 +5530,10 @@
       <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="4">
         <v>3.9</v>
       </c>
       <c r="G54">
@@ -5563,10 +5553,10 @@
       <c r="D55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="4">
         <v>38.46</v>
       </c>
       <c r="G55">
@@ -5586,10 +5576,10 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="3">
         <v>100</v>
       </c>
       <c r="G56">
@@ -5609,10 +5599,10 @@
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="9">
         <v>63.75</v>
       </c>
       <c r="G57">
@@ -5632,10 +5622,10 @@
       <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="3">
         <v>36.24</v>
       </c>
       <c r="G58">
@@ -5655,10 +5645,10 @@
       <c r="D59" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="3">
         <v>2.17</v>
       </c>
       <c r="G59">
@@ -5678,10 +5668,10 @@
       <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" t="s">
         <v>53</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="3">
         <v>5.24</v>
       </c>
       <c r="G60">
@@ -5701,10 +5691,10 @@
       <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="3">
         <v>2.11</v>
       </c>
       <c r="G61">
@@ -5724,10 +5714,10 @@
       <c r="D62" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="3">
         <v>1.6</v>
       </c>
       <c r="G62">
@@ -5747,10 +5737,10 @@
       <c r="D63" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="3">
         <v>1.38</v>
       </c>
       <c r="G63">
@@ -5770,10 +5760,10 @@
       <c r="D64" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>54</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="3">
         <v>2.92</v>
       </c>
       <c r="G64">
@@ -5793,10 +5783,10 @@
       <c r="D65" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="3">
         <v>3.7000000000000028</v>
       </c>
       <c r="G65">
@@ -5816,10 +5806,10 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="3">
         <v>2.0699999999999998</v>
       </c>
       <c r="G66">
@@ -5839,10 +5829,10 @@
       <c r="D67" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="3">
         <v>2.33</v>
       </c>
       <c r="G67">
@@ -5862,10 +5852,10 @@
       <c r="D68" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="3">
         <v>2.15</v>
       </c>
       <c r="G68">
@@ -5885,10 +5875,10 @@
       <c r="D69" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" t="s">
         <v>52</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="3">
         <v>74.33</v>
       </c>
       <c r="G69">
@@ -5908,10 +5898,10 @@
       <c r="D70" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="3">
         <v>100</v>
       </c>
       <c r="G70">
@@ -5931,10 +5921,10 @@
       <c r="D71" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" t="s">
         <v>53</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="3">
         <v>100</v>
       </c>
       <c r="G71">
@@ -5954,10 +5944,10 @@
       <c r="D72" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="3">
         <v>100</v>
       </c>
       <c r="G72">
@@ -5977,10 +5967,10 @@
       <c r="D73" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" t="s">
         <v>52</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="3">
         <v>100</v>
       </c>
       <c r="G73">
@@ -6000,10 +5990,10 @@
       <c r="D74" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="3">
         <v>44.99</v>
       </c>
       <c r="G74">
@@ -6023,10 +6013,10 @@
       <c r="D75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" t="s">
         <v>77</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="3">
         <v>14.76</v>
       </c>
       <c r="G75">
@@ -6046,10 +6036,10 @@
       <c r="D76" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" t="s">
         <v>80</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="3">
         <v>6.07</v>
       </c>
       <c r="G76">
@@ -6069,10 +6059,10 @@
       <c r="D77" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" t="s">
         <v>53</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="3">
         <v>5.19</v>
       </c>
       <c r="G77">
@@ -6092,10 +6082,10 @@
       <c r="D78" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" t="s">
         <v>55</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="3">
         <v>5.17</v>
       </c>
       <c r="G78">
@@ -6115,10 +6105,10 @@
       <c r="D79" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="3">
         <v>4.29</v>
       </c>
       <c r="G79">
@@ -6138,10 +6128,10 @@
       <c r="D80" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="3">
         <v>4.13</v>
       </c>
       <c r="G80">
@@ -6161,10 +6151,10 @@
       <c r="D81" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" t="s">
         <v>59</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="3">
         <v>4</v>
       </c>
       <c r="G81">
@@ -6184,10 +6174,10 @@
       <c r="D82" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="3">
         <v>3.23</v>
       </c>
       <c r="G82">
@@ -6207,10 +6197,10 @@
       <c r="D83" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" t="s">
         <v>119</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="3">
         <v>2.17</v>
       </c>
       <c r="G83">
@@ -6230,10 +6220,10 @@
       <c r="D84" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" t="s">
         <v>20</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="3">
         <v>6</v>
       </c>
       <c r="G84">
@@ -6253,10 +6243,10 @@
       <c r="D85" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" t="s">
         <v>58</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="3">
         <v>0.43</v>
       </c>
       <c r="G85">
@@ -6276,10 +6266,10 @@
       <c r="D86" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" t="s">
         <v>65</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="3">
         <v>1.03</v>
       </c>
       <c r="G86">
@@ -6299,10 +6289,10 @@
       <c r="D87" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="3">
         <v>0.79</v>
       </c>
       <c r="G87">
@@ -6322,10 +6312,10 @@
       <c r="D88" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" t="s">
         <v>77</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="G88">
@@ -6345,10 +6335,10 @@
       <c r="D89" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="3">
         <v>97.47</v>
       </c>
       <c r="G89">
@@ -6368,10 +6358,10 @@
       <c r="D90" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" t="s">
         <v>52</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="3">
         <v>100</v>
       </c>
       <c r="G90">
@@ -6392,10 +6382,10 @@
       <c r="D91" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" t="s">
         <v>65</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
       <c r="G91">
@@ -6415,10 +6405,10 @@
       <c r="D92" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="3">
         <v>100</v>
       </c>
       <c r="G92">
@@ -6438,10 +6428,10 @@
       <c r="D93" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" t="s">
         <v>52</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="3">
         <v>100</v>
       </c>
       <c r="G93">
@@ -6462,10 +6452,10 @@
       <c r="D94" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" t="s">
         <v>52</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
       <c r="G94">
@@ -6485,10 +6475,10 @@
       <c r="D95" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" t="s">
         <v>52</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="3">
         <v>100</v>
       </c>
       <c r="G95">
@@ -6508,10 +6498,10 @@
       <c r="D96" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" t="s">
         <v>52</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="3">
         <v>100</v>
       </c>
       <c r="G96">
@@ -6532,10 +6522,10 @@
       <c r="D97" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" t="s">
         <v>53</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="3">
         <v>100</v>
       </c>
       <c r="G97">
@@ -6555,10 +6545,10 @@
       <c r="D98" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" t="s">
         <v>52</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="3">
         <v>100</v>
       </c>
       <c r="G98">
@@ -6578,10 +6568,10 @@
       <c r="D99" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" t="s">
         <v>57</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="3">
         <v>1.3</v>
       </c>
       <c r="G99">
@@ -6601,10 +6591,10 @@
       <c r="D100" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="3">
         <v>0.1</v>
       </c>
       <c r="G100">
@@ -6624,10 +6614,10 @@
       <c r="D101" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" t="s">
         <v>84</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="3">
         <v>0.2</v>
       </c>
       <c r="G101">
@@ -6647,10 +6637,10 @@
       <c r="D102" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" t="s">
         <v>58</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="3">
         <v>0.4</v>
       </c>
       <c r="G102">
@@ -6670,10 +6660,10 @@
       <c r="D103" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" t="s">
         <v>53</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="3">
         <v>30.4</v>
       </c>
       <c r="G103">
@@ -6693,10 +6683,10 @@
       <c r="D104" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" t="s">
         <v>65</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="3">
         <v>2.5</v>
       </c>
       <c r="G104">
@@ -6716,10 +6706,10 @@
       <c r="D105" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" t="s">
         <v>62</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="3">
         <v>0.4</v>
       </c>
       <c r="G105">
@@ -6739,10 +6729,10 @@
       <c r="D106" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" t="s">
         <v>56</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="3">
         <v>0.3</v>
       </c>
       <c r="G106">
@@ -6762,10 +6752,10 @@
       <c r="D107" t="s">
         <v>24</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" t="s">
         <v>78</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="3">
         <v>1.7999999999999998</v>
       </c>
       <c r="G107">
@@ -6785,10 +6775,10 @@
       <c r="D108" t="s">
         <v>24</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" t="s">
         <v>63</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="3">
         <v>1.6</v>
       </c>
       <c r="G108">
@@ -6808,10 +6798,10 @@
       <c r="D109" t="s">
         <v>24</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" t="s">
         <v>81</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="3">
         <v>0.6</v>
       </c>
       <c r="G109">
@@ -6831,10 +6821,10 @@
       <c r="D110" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" t="s">
         <v>68</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="3">
         <v>1.0999999999999999</v>
       </c>
       <c r="G110">
@@ -6854,10 +6844,10 @@
       <c r="D111" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" t="s">
         <v>75</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="3">
         <v>0.1</v>
       </c>
       <c r="G111">
@@ -6877,10 +6867,10 @@
       <c r="D112" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" t="s">
         <v>64</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="3">
         <v>0.1</v>
       </c>
       <c r="G112">
@@ -6900,10 +6890,10 @@
       <c r="D113" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" t="s">
         <v>61</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="3">
         <v>0.5</v>
       </c>
       <c r="G113">
@@ -6923,10 +6913,10 @@
       <c r="D114" t="s">
         <v>24</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" t="s">
         <v>54</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="3">
         <v>4.3999999999999995</v>
       </c>
       <c r="G114">
@@ -6946,10 +6936,10 @@
       <c r="D115" t="s">
         <v>24</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" t="s">
         <v>88</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="3">
         <v>0.1</v>
       </c>
       <c r="G115">
@@ -6969,10 +6959,10 @@
       <c r="D116" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" t="s">
         <v>73</v>
       </c>
-      <c r="F116" s="8">
+      <c r="F116" s="3">
         <v>0.1</v>
       </c>
       <c r="G116">
@@ -6992,10 +6982,10 @@
       <c r="D117" t="s">
         <v>24</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" t="s">
         <v>74</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="3">
         <v>0.2</v>
       </c>
       <c r="G117">
@@ -7015,10 +7005,10 @@
       <c r="D118" t="s">
         <v>24</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" t="s">
         <v>59</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="3">
         <v>0.8</v>
       </c>
       <c r="G118">
@@ -7038,10 +7028,10 @@
       <c r="D119" t="s">
         <v>24</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" t="s">
         <v>60</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="3">
         <v>0.1</v>
       </c>
       <c r="G119">
@@ -7061,10 +7051,10 @@
       <c r="D120" t="s">
         <v>24</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" t="s">
         <v>83</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="3">
         <v>0.2</v>
       </c>
       <c r="G120">
@@ -7084,10 +7074,10 @@
       <c r="D121" t="s">
         <v>24</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" t="s">
         <v>20</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="3">
         <v>0.2</v>
       </c>
       <c r="G121">
@@ -7107,10 +7097,10 @@
       <c r="D122" t="s">
         <v>24</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" t="s">
         <v>87</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="3">
         <v>0.1</v>
       </c>
       <c r="G122">
@@ -7130,10 +7120,10 @@
       <c r="D123" t="s">
         <v>24</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" t="s">
         <v>86</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="3">
         <v>0.1</v>
       </c>
       <c r="G123">
@@ -7153,10 +7143,10 @@
       <c r="D124" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="3">
         <v>0.1</v>
       </c>
       <c r="G124">
@@ -7176,10 +7166,10 @@
       <c r="D125" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" t="s">
         <v>70</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="3">
         <v>0.2</v>
       </c>
       <c r="G125">
@@ -7199,10 +7189,10 @@
       <c r="D126" t="s">
         <v>24</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" t="s">
         <v>71</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="3">
         <v>0.3</v>
       </c>
       <c r="G126">
@@ -7222,10 +7212,10 @@
       <c r="D127" t="s">
         <v>24</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" t="s">
         <v>82</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="3">
         <v>0.2</v>
       </c>
       <c r="G127">
@@ -7245,10 +7235,10 @@
       <c r="D128" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" t="s">
         <v>69</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="3">
         <v>0.3</v>
       </c>
       <c r="G128">
@@ -7268,10 +7258,10 @@
       <c r="D129" t="s">
         <v>24</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" t="s">
         <v>67</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="3">
         <v>1</v>
       </c>
       <c r="G129">
@@ -7291,10 +7281,10 @@
       <c r="D130" t="s">
         <v>24</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" t="s">
         <v>79</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="3">
         <v>0.4</v>
       </c>
       <c r="G130">
@@ -7314,10 +7304,10 @@
       <c r="D131" t="s">
         <v>24</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" t="s">
         <v>80</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="3">
         <v>0.70000000000000007</v>
       </c>
       <c r="G131">
@@ -7337,10 +7327,10 @@
       <c r="D132" t="s">
         <v>24</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" t="s">
         <v>55</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="3">
         <v>1.7000000000000002</v>
       </c>
       <c r="G132">
@@ -7360,10 +7350,10 @@
       <c r="D133" t="s">
         <v>24</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" t="s">
         <v>66</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="3">
         <v>1.4000000000000001</v>
       </c>
       <c r="G133">
@@ -7383,10 +7373,10 @@
       <c r="D134" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" t="s">
         <v>72</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="3">
         <v>0.2</v>
       </c>
       <c r="G134">
@@ -7406,10 +7396,10 @@
       <c r="D135" t="s">
         <v>24</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" t="s">
         <v>77</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="3">
         <v>2.8000000000000003</v>
       </c>
       <c r="G135">
@@ -7429,10 +7419,10 @@
       <c r="D136" t="s">
         <v>24</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" t="s">
         <v>91</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="3">
         <v>0.1</v>
       </c>
       <c r="G136">
@@ -7452,10 +7442,10 @@
       <c r="D137" t="s">
         <v>24</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" t="s">
         <v>52</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="3">
         <v>42.9</v>
       </c>
       <c r="G137">
@@ -7476,10 +7466,10 @@
       <c r="D138" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" t="s">
         <v>52</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="3">
         <v>100</v>
       </c>
       <c r="G138">
@@ -7499,10 +7489,10 @@
       <c r="D139" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" t="s">
         <v>52</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="3">
         <v>100</v>
       </c>
       <c r="G139">
@@ -7522,10 +7512,10 @@
       <c r="D140" t="s">
         <v>7</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" t="s">
         <v>52</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="3">
         <v>100</v>
       </c>
       <c r="G140">
@@ -7548,7 +7538,7 @@
       <c r="E141" t="s">
         <v>52</v>
       </c>
-      <c r="F141" s="17">
+      <c r="F141" s="3">
         <v>100</v>
       </c>
       <c r="G141">
@@ -7571,7 +7561,7 @@
       <c r="E142" t="s">
         <v>52</v>
       </c>
-      <c r="F142" s="17">
+      <c r="F142" s="3">
         <v>100</v>
       </c>
       <c r="G142">
@@ -7594,7 +7584,7 @@
       <c r="E143" t="s">
         <v>52</v>
       </c>
-      <c r="F143" s="17">
+      <c r="F143" s="3">
         <v>100</v>
       </c>
       <c r="G143">
@@ -7676,7 +7666,7 @@
         <f>A2&amp;"-"&amp;B2</f>
         <v>VCLT-USD</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E2" t="s">
@@ -7700,7 +7690,7 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="5">
         <v>44628.725694444445</v>
       </c>
     </row>
@@ -7715,7 +7705,7 @@
         <f t="shared" ref="C3:C6" si="0">A3&amp;"-"&amp;B3</f>
         <v>TLT-USD</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E3" t="s">
@@ -7739,7 +7729,7 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="5">
         <v>44628.725694444445</v>
       </c>
     </row>
@@ -7754,7 +7744,7 @@
         <f t="shared" si="0"/>
         <v>XLF-USD</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="7" t="s">
         <v>125</v>
       </c>
       <c r="E4" t="s">
@@ -7778,7 +7768,7 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="5">
         <v>44628.725694444445</v>
       </c>
     </row>
@@ -7793,7 +7783,7 @@
         <f t="shared" si="0"/>
         <v>PSP-USD</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>122</v>
       </c>
       <c r="E5" t="s">
@@ -7817,7 +7807,7 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="5">
         <v>44628.725694444445</v>
       </c>
     </row>
@@ -7832,7 +7822,7 @@
         <f t="shared" si="0"/>
         <v>ESGV-USD</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E6" t="s">
@@ -7856,7 +7846,7 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="5">
         <v>44628.725694444445</v>
       </c>
     </row>
@@ -8798,7 +8788,7 @@
       <c r="A36" s="1">
         <v>44783</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>157</v>
       </c>
       <c r="C36" t="s">
@@ -8824,7 +8814,7 @@
       <c r="A37" s="1">
         <v>44783</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>158</v>
       </c>
       <c r="C37" t="s">
@@ -8859,10 +8849,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE640F6-67C2-41C5-A6DC-CD9104FE1D7C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8958,7 +8948,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B4" t="str">
@@ -8985,7 +8975,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B5" t="str">
@@ -9012,7 +9002,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B6" t="str">
@@ -9039,7 +9029,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B7" t="str">
@@ -9063,6 +9053,32 @@
       </c>
       <c r="H7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44788</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -9074,8 +9090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24FBA74-073E-46F2-A677-303D1306A835}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9124,7 +9140,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="5">
         <v>44627.724999999999</v>
       </c>
     </row>
@@ -9144,7 +9160,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="5">
         <v>44627.724999999999</v>
       </c>
     </row>
@@ -9164,7 +9180,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="5">
         <v>44627.724999999999</v>
       </c>
     </row>
@@ -9184,7 +9200,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="5">
         <v>44793.875</v>
       </c>
     </row>
@@ -9204,7 +9220,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="5">
         <v>44794.923611111109</v>
       </c>
     </row>
@@ -9217,8 +9233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19D8F81-04A5-4D1F-90EE-02C5BAFD5B03}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9257,10 +9273,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44637</v>
+        <v>44788</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
@@ -9268,22 +9284,22 @@
       <c r="D2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="18">
-        <v>139895.32999999999</v>
+      <c r="E2" s="10">
+        <v>15000</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="12">
-        <v>44784.838888888888</v>
+      <c r="G2" s="5">
+        <v>44810.627083333333</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44784</v>
+        <v>44810</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>160</v>
@@ -9291,291 +9307,75 @@
       <c r="D3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="18">
-        <v>134823</v>
+      <c r="E3" s="10">
+        <v>15000</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>44784.838888888888</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44810.627083333333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44586</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="18">
-        <v>50000</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>44784.838888888888</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44616</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="18">
-        <v>15000</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>44784.838888888888</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="18">
-        <v>20000</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>44784.838888888888</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44784</v>
-      </c>
-      <c r="B7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="18">
-        <v>85406</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>44784.838888888888</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44785</v>
-      </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8">
-        <v>86291.04</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>44785.741157407407</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44785</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9">
-        <v>135929.89000000001</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>44785.743425925924</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44788</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10">
-        <v>137980.89000000001</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>44788.905960648146</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44788</v>
-      </c>
-      <c r="B11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11">
-        <v>90309.41</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>44788.908159722225</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44789</v>
-      </c>
-      <c r="B12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12">
-        <v>90235.98</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>44789.871087962965</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44789</v>
-      </c>
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13">
-        <v>137506.89000000001</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>44789.872314814813</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44790</v>
-      </c>
-      <c r="B14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14">
-        <v>89877.63</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
-        <v>44791.728495370371</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44790</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15">
-        <v>136786.14000000001</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>44791.729456018518</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="G15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
